--- a/clusters/cluster2.xlsx
+++ b/clusters/cluster2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>localizacao</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>pros</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>contras</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>embeddings</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cluster</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cluster_encoded</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tsne_1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tsne_2</t>
         </is>
@@ -488,915 +493,1001 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEV III</t>
+          <t>ENGENHEIRO DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROS: OS PROJETOS SAO INTERESSANTES E DESAFIADORES. BOM LUGAR PRA CRESCER TECNICAMENTE. | CONTRAS: O PRESENCIAL E UM FATOR BEM NEGATIVO. E PLANO DE CARREIRA NAO EXISTE. PRECISA TER SORTE DE CAIR EM UM TIME COM GRANDE INFLUENCIA DENTRO DO BANCO.</t>
+          <t>PROS: BOA EQUIPE E PESSOAS BACANAS. | CONTRAS: ZERO VALORIZACAO DO COLABORADOR, FALTA DE TRANSPARENCIA, DECISOES SEM PE NEM CABECA.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17 de abr. de 2025</t>
+          <t>29 de jun. de 2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PROS: OS PROJETOS SAO INTERESSANTES E DESAFIADORES. BOM LUGAR PRA CRESCER TECNICAMENTE.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O PRESENCIAL E UM FATOR BEM NEGATIVO. E PLANO DE CARREIRA NAO EXISTE. PRECISA TER SORTE DE CAIR EM UM TIME COM GRANDE INFLUENCIA DENTRO DO BANCO.</t>
+          <t>PROS: BOA EQUIPE E PESSOAS BACANAS.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.04334679  0.01686156 -0.04659971 ...  0.01875281 -0.02402123
- -0.01844892]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
+          <t>ZERO VALORIZACAO DO COLABORADOR, FALTA DE TRANSPARENCIA, DECISOES SEM PE NEM CABECA.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[-0.05359221  0.00886104 -0.02941895 ...  0.00511723 -0.0179126
+ -0.00120137]</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>14.04995536804199</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>-17.96442031860352</v>
+        <v>-10.06799030303955</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.223447561264038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADVISOR I</t>
+          <t>ESPECIALISTA DE MARKETING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOA ESTRUTURA DE TRABALHO | CONTRAS: NAO TEM PLANO DE CARREIRA</t>
+          <t>PROS: BONS BENEFICIOS E BONS SALARIOS | CONTRAS: ORGANIZACAO FRACA E ETICA PROBLEMATICA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11 de abr. de 2025</t>
+          <t>16 de jun. de 2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOA ESTRUTURA DE TRABALHO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA</t>
+          <t>PROS: BONS BENEFICIOS E BONS SALARIOS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.02777253  0.00172459 -0.02867632 ... -0.01746169  0.0032521
- -0.01080907]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
+          <t>ORGANIZACAO FRACA E ETICA PROBLEMATICA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[-0.00538917 -0.02485863  0.01011238 ...  0.02722972 -0.02219275
+  0.03541271]</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>8.505996704101562</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>-17.54665946960449</v>
+        <v>-1.915430307388306</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-4.479252338409424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANALISTA DE POLITICAS DE CREDITO PLENO</t>
+          <t>ANALISTA DE FP&amp;A PLENO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROS: MUITA OPORTUNIDADE PARA DESENVOLVER HABILIDADES. TRABALHO COM MUITA TECNOLOGIA | CONTRAS: PLANO DE CARREIRA. CRITERIO PARA CONTRATACAO ABAIXO DO QUE PARA PROMOCAO</t>
+          <t>PROS: PAGA VR ALTO E PLR DE 1,5 SALARIOS POR ANO. | CONTRAS: GESTAO TENDE A SER PESSOAL E NAO EXISTE CULTURA ORGANIZACIONAL.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17 de mar. de 2025</t>
+          <t>6 de jun. de 2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PROS: MUITA OPORTUNIDADE PARA DESENVOLVER HABILIDADES. TRABALHO COM MUITA TECNOLOGIA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PLANO DE CARREIRA. CRITERIO PARA CONTRATACAO ABAIXO DO QUE PARA PROMOCAO</t>
+          <t>PROS: PAGA VR ALTO E PLR DE 1,5 SALARIOS POR ANO.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.04885947 -0.03518648 -0.03194082 ... -0.02239057  0.03724192
- -0.01640364]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+          <t>GESTAO TENDE A SER PESSOAL E NAO EXISTE CULTURA ORGANIZACIONAL.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[-0.02640995 -0.00461714 -0.04884878 ... -0.00686441 -0.05153848
+ -0.00920944]</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3367112278938293</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>-21.98732948303223</v>
+        <v>-13.87843322753906</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-5.0463547706604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS JUNIOR</t>
+          <t>ADVOGADO JUNIOR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROS: SALARIO MUITO BOM PARA UM JUNIOR, HOME OFFICE NO COMECO. | CONTRAS: PLR DE 1500 REAIS, SEM PLANO DE CARREIRA, PRESENCIAL ENTRE OUTRAS COISAS.</t>
+          <t>PROS: MUITO DINAMISMO, A EMPRESA PROPORCIONA VIVENCIA DE MERCADO. | CONTRAS: SEM VALORIZACAO DO FUNCIONARIO. POUCAS PROMOCOES.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13 de mar. de 2025</t>
+          <t>21 de mai. de 2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PROS: SALARIO MUITO BOM PARA UM JUNIOR, HOME OFFICE NO COMECO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PLR DE 1500 REAIS, SEM PLANO DE CARREIRA, PRESENCIAL ENTRE OUTRAS COISAS.</t>
+          <t>PROS: MUITO DINAMISMO, A EMPRESA PROPORCIONA VIVENCIA DE MERCADO.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-0.05723918 -0.00049534 -0.04196743 ... -0.0124474  -0.02916395
- -0.02164666]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
+          <t>SEM VALORIZACAO DO FUNCIONARIO. POUCAS PROMOCOES.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[-0.0661765   0.01015108 -0.03263633 ...  0.00189963 -0.00381043
+ -0.00415417]</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>8.991817474365234</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>-13.39037227630615</v>
+        <v>-9.866951942443848</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.419743895530701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>DESENVOLVEDOR BACK-END PLENO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROS: BOA ESTRUTURA, EMPRESA ORGANIZADA E COM BOAS OPORTUNIDADES DE CRESCIMENTO. | CONTRAS: FALTA DE PLANO DE CARREIRA.</t>
+          <t>PROS: BOM AMBIENTE PARA APRENDIZAGEM. TECNOLOGIAS DE PONTA. TEM ESPACO PARA INOVAR. | CONTRAS: PRESENCIAL. BUROCRACIA EM EXCESSO. PROGRESSAO DE CARREIRA RUIM.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5 de mar. de 2025</t>
+          <t>11 de mai. de 2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PROS: BOA ESTRUTURA, EMPRESA ORGANIZADA E COM BOAS OPORTUNIDADES DE CRESCIMENTO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FALTA DE PLANO DE CARREIRA.</t>
+          <t>PROS: BOM AMBIENTE PARA APRENDIZAGEM. TECNOLOGIAS DE PONTA. TEM ESPACO PARA INOVAR.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.03686932  0.00582306 -0.0389265  ... -0.00460904 -0.0031775
-  0.01601735]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
+          <t>PRESENCIAL. BUROCRACIA EM EXCESSO. PROGRESSAO DE CARREIRA RUIM.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[-0.02653152  0.00585174 -0.02541149 ... -0.01926397 -0.02435525
+  0.02271192]</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.663652420043945</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>-19.55449867248535</v>
+        <v>-0.8613678216934204</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-14.25936412811279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ANALISTA DE TI SENIOR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO COMPETITIVO | CONTRAS: INFLEXIBILIDADE, PRESENCIAL, SEM PLANO DE CARREIRA E MUITO TRABALHO</t>
+          <t>PROS: - BENEFICIOS - AMBIENTE - SALARIO COMPETITIVO | CONTRAS: - PROCESSOS ENGESSADOS E BUROCRATICOS - MUITO TRABALHO E POUCO RECONHECIMENTO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23 de jan. de 2025</t>
+          <t>1 de mai. de 2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS E SALARIO COMPETITIVO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>INFLEXIBILIDADE, PRESENCIAL, SEM PLANO DE CARREIRA E MUITO TRABALHO</t>
+          <t>PROS: - BENEFICIOS - AMBIENTE - SALARIO COMPETITIVO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.03412477 -0.01121586 -0.0376853  ...  0.01306191 -0.03038413
-  0.01819653]</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
+          <t>- PROCESSOS ENGESSADOS E BUROCRATICOS - MUITO TRABALHO E POUCO RECONHECIMENTO</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[ 0.00386673  0.0184567  -0.03953093 ... -0.01285969 -0.01216997
+  0.01818402]</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>12.71416187286377</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>-13.24075698852539</v>
+        <v>-24.44403457641602</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1.534600138664246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANALISTA DE MONITORAMENTO E OBSERVABILIDADE</t>
+          <t>DEV SPECIALIST</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, OTIMOS BENEFICIOS, GESTAO MUITO ACOLHEDORA. | CONTRAS: NAO HA UM PLANO DE CARREIRA CONSOLIDADO.</t>
+          <t>PROS: BONS BENEFICIOS POREM NAO PREGAM A TRANSPARENCIA. | CONTRAS: FALTA DE TRANSPARENCIA COM OS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16 de jan. de 2025</t>
+          <t>9 de abr. de 2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DESAFIADOR, OTIMOS BENEFICIOS, GESTAO MUITO ACOLHEDORA.</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NAO HA UM PLANO DE CARREIRA CONSOLIDADO.</t>
+          <t>PROS: BONS BENEFICIOS POREM NAO PREGAM A TRANSPARENCIA.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[-0.0245883  -0.00721736 -0.05835161 ...  0.00391201  0.02337548
-  0.02560003]</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
+          <t>FALTA DE TRANSPARENCIA COM OS FUNCIONARIOS.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[-0.03348955 -0.00644014 -0.05324767 ...  0.00056102 -0.01346488
+ -0.0164524 ]</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.960203647613525</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>-17.03125953674316</v>
+        <v>-16.6317195892334</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.649087905883789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOWFTWARE DEVELOPER</t>
+          <t>DESENVOLVEDOR JUNIOR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PROS: - BOM BENEFICIARIO DE ALIMENTACAO, REFEICAO, AUXILIO MATERNIDADE - TIVE SORTE DE ESTAR EM UM TIME COLABORATIVO E RESPEITOSO - OPORTUNIDADE DE APRENDER E LIDAR COM NOVAS TECNOLOGIAS | CONTRAS: - SEM PLANO DE CARREIRA E SEM MUITA EXPECTATIVA DE PROMOCAO - VOLTARAM PRESENCIAL, TIRANDO A CHANCE DE QUEM ESTAVA ATUANDO REMOTO - PLANO DE SAUDE BEM RUIM</t>
+          <t>PROS: JA FOI MUITO BOA, AGORA HA OBRIGATORIEDADE DE PONTO E PRESENCIAL | CONTRAS: MUDANCA DE REGRAS MUITO RAPIDAS E SEM PREPARO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3 de dez. de 2024</t>
+          <t>21 de mar. de 2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PROS: - BOM BENEFICIARIO DE ALIMENTACAO, REFEICAO, AUXILIO MATERNIDADE - TIVE SORTE DE ESTAR EM UM TIME COLABORATIVO E RESPEITOSO - OPORTUNIDADE DE APRENDER E LIDAR COM NOVAS TECNOLOGIAS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>- SEM PLANO DE CARREIRA E SEM MUITA EXPECTATIVA DE PROMOCAO - VOLTARAM PRESENCIAL, TIRANDO A CHANCE DE QUEM ESTAVA ATUANDO REMOTO - PLANO DE SAUDE BEM RUIM</t>
+          <t>PROS: JA FOI MUITO BOA, AGORA HA OBRIGATORIEDADE DE PONTO E PRESENCIAL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[-0.01254618  0.01431523 -0.01319307 ...  0.00157655 -0.00519448
- -0.0377063 ]</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
+          <t>MUDANCA DE REGRAS MUITO RAPIDAS E SEM PREPARO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[-0.00230505  0.04814634 -0.05513066 ... -0.03165365 -0.03689014
+  0.01442012]</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>13.88039112091064</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>-11.21415042877197</v>
+        <v>-13.1458911895752</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.727869987487793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DEV SENIOR</t>
+          <t>DEV II</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROS: VOCE VAI APRENDER MUITO, MAS NA MAIORIA DAS VEZES VAI APRENDER DA PIOR MANEIRA POSSIVEL, RESOLVENDO PROBLEMAS CRITICOS E PESQUISANDO SOBRE. | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO, O QUE LEVA A FALTA DE PROMOCOES E DESMOTIVACAO.</t>
+          <t>PROS: TEM BONS BENEFICIOS, PRINCIPALMENTE O VA. | CONTRAS: POLITICA DE PROMOCAO PIOROU MUITO. NAO VALORIZA O DESEMPENHO DOS FUNCIONARIOS COMO DEVERIAM.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12 de dez. de 2024</t>
+          <t>19 de mar. de 2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PROS: VOCE VAI APRENDER MUITO, MAS NA MAIORIA DAS VEZES VAI APRENDER DA PIOR MANEIRA POSSIVEL, RESOLVENDO PROBLEMAS CRITICOS E PESQUISANDO SOBRE.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO, O QUE LEVA A FALTA DE PROMOCOES E DESMOTIVACAO.</t>
+          <t>PROS: TEM BONS BENEFICIOS, PRINCIPALMENTE O VA.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[-0.04116572 -0.01418399 -0.04160606 ... -0.00382508  0.02353406
- -0.02980105]</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
+          <t>POLITICA DE PROMOCAO PIOROU MUITO. NAO VALORIZA O DESEMPENHO DOS FUNCIONARIOS COMO DEVERIAM.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[-0.03764079 -0.0071834  -0.03005629 ... -0.01819849 -0.00672153
+  0.00507563]</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.192474842071533</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>-15.57060527801514</v>
+        <v>-9.170570373535156</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8599757552146912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>DEVELOPER</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BONS BENEFICIOS | CONTRAS: SEM PLANO DE CARREIRA DETALHADO</t>
+          <t>PROS: VALE REFEICAO, VALE ALIMENTACAO E PLR QUANDO BATE A META | CONTRAS: MUITA BAGUNCA NA PARTE DE GESTAO DE PROJETOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8 de jan. de 2025</t>
+          <t>10 de mar. de 2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BONS BENEFICIOS</t>
+          <t>Petrópolis, RJ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SEM PLANO DE CARREIRA DETALHADO</t>
+          <t>PROS: VALE REFEICAO, VALE ALIMENTACAO E PLR QUANDO BATE A META</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[-0.03340045  0.00374331 -0.01504328 ... -0.01479869 -0.00586083
-  0.02447713]</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
+          <t>MUITA BAGUNCA NA PARTE DE GESTAO DE PROJETOS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[-0.04849803 -0.0257315  -0.02891431 ... -0.00031555  0.03714808
+ -0.01490067]</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>7.161856651306152</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>-19.30361175537109</v>
+        <v>-28.43715476989746</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.172091126441956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ANALISTA DE COMPRAS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS (TICKET, DUO, CARTAO BLACK) | CONTRAS: FALTA PLANO DE CARREIRA NA EMPRESA.</t>
+          <t>PROS: REMUNERACAO INTERESSANTE PARA NIVEL DE JUNIOR EM UMA EMPRESA EM DESENVOLVIMENTO. | CONTRAS: AUSENCIA DE PROCESSOS DEFINIDOS E SEGREGACAO DO TRABALHO.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28 de nov. de 2024</t>
+          <t>9 de mar. de 2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS (TICKET, DUO, CARTAO BLACK)</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FALTA PLANO DE CARREIRA NA EMPRESA.</t>
+          <t>PROS: REMUNERACAO INTERESSANTE PARA NIVEL DE JUNIOR EM UMA EMPRESA EM DESENVOLVIMENTO.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[-0.05659489  0.00309859 -0.04809977 ...  0.00540355 -0.01566411
-  0.01090749]</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
+          <t>AUSENCIA DE PROCESSOS DEFINIDOS E SEGREGACAO DO TRABALHO.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[-0.0230999   0.00063254 -0.07134368 ... -0.00339093 -0.01263956
+ -0.00342689]</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.768298149108887</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>-20.2981128692627</v>
+        <v>-17.81392669677734</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.875611901283264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DEV I</t>
+          <t>ANALISTA DE POLITICAS DE CREDITO PLENO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROS: * POSSUI UMA VASTA VARIEDADE EM FERRAMENTAS E TECNOLOGIAS QUE AJUDAM NO GANHO DE CONHECIMENTO. * HOME OFFICE PARA QUEM NAO RESIDE EM BH. * FLEXIBILIDADE NO DIA A DIA. * DAYOFF DE ANIVERSARIO | CONTRAS: * DIFICIL PROGRESSAO DE CARGO (PRATICAMENTE NAO HA UM PLANO DE CARREIRA CONSOLIDADO).</t>
+          <t>PROS: MUITO APRENDIZADO PRINCIPALMENTE COM RELACAO A DIVERSIDADE DE PRODUTOS DE CREDITO E UTILIZACAO DE DADOS | CONTRAS: FALTA DE AUTONOMIA E GESTAO INEFICIENTE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26 de set. de 2024</t>
+          <t>10 de mar. de 2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PROS: * POSSUI UMA VASTA VARIEDADE EM FERRAMENTAS E TECNOLOGIAS QUE AJUDAM NO GANHO DE CONHECIMENTO. * HOME OFFICE PARA QUEM NAO RESIDE EM BH. * FLEXIBILIDADE NO DIA A DIA. * DAYOFF DE ANIVERSARIO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>* DIFICIL PROGRESSAO DE CARGO (PRATICAMENTE NAO HA UM PLANO DE CARREIRA CONSOLIDADO).</t>
+          <t>PROS: MUITO APRENDIZADO PRINCIPALMENTE COM RELACAO A DIVERSIDADE DE PRODUTOS DE CREDITO E UTILIZACAO DE DADOS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-0.02132934  0.00976254 -0.03906188 ... -0.01757311  0.00532326
-  0.0026324 ]</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
+          <t>FALTA DE AUTONOMIA E GESTAO INEFICIENTE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[ 0.02935056  0.02845884 -0.03795494 ... -0.01236186 -0.0376953
+ -0.02736357]</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6717380285263062</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>-17.37766647338867</v>
+        <v>-14.44381809234619</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-2.332720041275024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ANALISTA DO SUCESSO DO CLIENTE</t>
+          <t>PRODUCT ANALYST I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PLANO DE SAUDE BOM | CONTRAS: GESTAO, PS CARO, N HA PLANO DE CARREIRA.</t>
+          <t>PROS: BONS BENEFICIOS, GESTAO DISTANTE DA REALIDADE, POUCA LIBERADE DE DESENVOLVIMENTO | CONTRAS: SUBIDA DE CARGO SOMENTE POR QI E SEM ESTRUTURACAO.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22 de out. de 2024</t>
+          <t>10 de mar. de 2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PLANO DE SAUDE BOM</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GESTAO, PS CARO, N HA PLANO DE CARREIRA.</t>
+          <t>PROS: BONS BENEFICIOS, GESTAO DISTANTE DA REALIDADE, POUCA LIBERADE DE DESENVOLVIMENTO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.01775255  0.0115196  -0.03654482 ... -0.02040693 -0.00942687
- -0.00903249]</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
+          <t>SUBIDA DE CARGO SOMENTE POR QI E SEM ESTRUTURACAO.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[-0.05102812  0.0191602  -0.01738571 ... -0.00015073  0.00180725
+  0.02783607]</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>7.46613073348999</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>-16.4915828704834</v>
+        <v>-6.668726444244385</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.277741193771362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ANALISTA DE MONITORAMENTO PLENO</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS SALARIOS E BENEFICIOS. EMPRESA BEM AGRADAVEL DE SE TRABALHAR | CONTRAS: VOCE NAO SABE O QUE FAZER PARA SER PROMOVIDO, SEM PLANO DE CARREIRA.
-RH E MUITO AFASTADO DOS FUNCIONARIOS</t>
+          <t>PROS: ELES PAGAM BONS SALARIOS PARA TODOS. | CONTRAS: FALTA DE SEGURANCA EM SE MANTER EMPREGADO. PREGAM HO MAS NAO CUMPREM.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29 de ago. de 2024</t>
+          <t>9 de fev. de 2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS SALARIOS E BENEFICIOS. EMPRESA BEM AGRADAVEL DE SE TRABALHAR</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VOCE NAO SABE O QUE FAZER PARA SER PROMOVIDO, SEM PLANO DE CARREIRA.
-RH E MUITO AFASTADO DOS FUNCIONARIOS</t>
+          <t>PROS: ELES PAGAM BONS SALARIOS PARA TODOS.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-0.01941097  0.03019509 -0.01259776 ...  0.00499311  0.03981789
- -0.00358922]</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
+          <t>FALTA DE SEGURANCA EM SE MANTER EMPREGADO. PREGAM HO MAS NAO CUMPREM.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[-0.00990005  0.03088415 -0.06815951 ... -0.00630628 -0.02863532
+ -0.00611252]</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.653225898742676</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>-15.7306957244873</v>
+        <v>-9.706315040588379</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7.893712043762207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ESTAGIO</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROS: EXPERIENCIA, CURRICULO PARA O MERCADO, RELACIONAL | CONTRAS: BOLSA ESTAGIO E PLANO DE CARREIRA</t>
+          <t>PROS: OTIMA ESTRUTURA, LOCALIZACAO BOA E BOM SUPORTE PRA TRABALHO | CONTRAS: FRACA AVALIACAO DE PERFORMANCE, PRIORIZA SEMPRE LUCRO EM FRENTE DE PESSOAS (SE FOR SUBSTITUIVEL, SERA POR ALGUEM MAIS BARATO)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>27 de ago. de 2024</t>
+          <t>28 de jan. de 2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PROS: EXPERIENCIA, CURRICULO PARA O MERCADO, RELACIONAL</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BOLSA ESTAGIO E PLANO DE CARREIRA</t>
+          <t>PROS: OTIMA ESTRUTURA, LOCALIZACAO BOA E BOM SUPORTE PRA TRABALHO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[ 0.02253691 -0.02745434 -0.03511748 ...  0.00394704 -0.01180277
-  0.01397696]</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
+          <t>FRACA AVALIACAO DE PERFORMANCE, PRIORIZA SEMPRE LUCRO EM FRENTE DE PESSOAS (SE FOR SUBSTITUIVEL, SERA POR ALGUEM MAIS BARATO)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[-0.07077038  0.00672616 -0.03902093 ... -0.03153645 -0.00785617
+ -0.00606083]</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>7.551165580749512</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>-22.76859855651855</v>
+        <v>-11.03495407104492</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.057603359222412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>ANALISTA DE RECURSOS HUMANOS (RH)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROS: BOA CULTURA, BONS BENEFICIOS E JORNADA FLEXIVEL. | CONTRAS: TRANSPARENCIA NA PARTICIPACAO DOS LUCROS E PLANO DE CARREIRA</t>
+          <t>PROS: O GRUPO COMO UM TODO POSSUI UM OTIMO RELACIONAMENTO ENTRE EQUIPES E TRABALHO EM CONJUNTO, DESENVOLVENDO OTIMOS PROJETOS, | CONTRAS: APESAR DESTE RELACIONAMENTO, OS PROCESSOS AINDA NECESSITAM DE MELHORIAS E POSSUEM POUCA FUNCIONALIDADE.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5 de ago. de 2024</t>
+          <t>3 de fev. de 2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PROS: BOA CULTURA, BONS BENEFICIOS E JORNADA FLEXIVEL.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRANSPARENCIA NA PARTICIPACAO DOS LUCROS E PLANO DE CARREIRA</t>
+          <t>PROS: O GRUPO COMO UM TODO POSSUI UM OTIMO RELACIONAMENTO ENTRE EQUIPES E TRABALHO EM CONJUNTO, DESENVOLVENDO OTIMOS PROJETOS,</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-0.04618947 -0.03366442 -0.02338585 ... -0.01789979  0.00320537
-  0.00866561]</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
+          <t>APESAR DESTE RELACIONAMENTO, OS PROCESSOS AINDA NECESSITAM DE MELHORIAS E POSSUEM POUCA FUNCIONALIDADE.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[-0.03659362  0.02170423 -0.05416869 ...  0.00840899 -0.02266311
+  0.01479904]</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>6.757361888885498</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>-24.59492874145508</v>
+        <v>-23.00970268249512</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.2936324775218964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DATA ANALYST</t>
+          <t>PRODUCT DESIGNER</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS. AMBIENTE LEGAL E PESSOAS E TECNOLOGIAS BOAS | CONTRAS: DIFICULDADE DE PROGRESSAO DE CARREIRA.</t>
+          <t>PROS: BOA PARA APRENDIZADO. HA BONS TECNICOS. | CONTRAS: MA GESTAO, TRABALHO EXAUSTIVO E FALTA DE PREOCUPACAO PARA COM O BEM ESTAR DOS FUNCIONARIOS.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12 de jun. de 2024</t>
+          <t>23 de jan. de 2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO E BENEFICIOS. AMBIENTE LEGAL E PESSOAS E TECNOLOGIAS BOAS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DIFICULDADE DE PROGRESSAO DE CARREIRA.</t>
+          <t>PROS: BOA PARA APRENDIZADO. HA BONS TECNICOS.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-0.01583153  0.00379339 -0.02765939 ... -0.01491222 -0.01493882
-  0.00168322]</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
+          <t>MA GESTAO, TRABALHO EXAUSTIVO E FALTA DE PREOCUPACAO PARA COM O BEM ESTAR DOS FUNCIONARIOS.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[-0.02177932 -0.00767924 -0.07802568 ... -0.00116493 -0.01888604
+ -0.03622385]</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.024054527282715</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>-18.78772735595703</v>
+        <v>-13.07575416564941</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-3.147663354873657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANALISTA SENIOR</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS FLEXIBILIDADE HORARIO EVENTOS PESSOAS AMIGAVEIS | CONTRAS: FALTA DE HOME OFFICE TODO MUNDO E PARENTE / AMIGO DIFICULDADE DE TRILHA DE CARREIRA PREFERENCIAL PARA ALGUMAS PESSOAS ESTRATEGIA NAO MUITO CLARA</t>
+          <t>PROS: CRESCIMENTO TECNICO CONSTANTE, COM MUITAS PESSOAS PRESTATIVAS QUE ESTAO DISPOSTAS A TE AJUDAR | CONTRAS: LIDERANCA POUCO COMUNICATIVA E FALTA DE ACOMPANHAMENTO E FEEDBACK</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20 de mai. de 2024</t>
+          <t>13 de jan. de 2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PROS: BONS BENEFICIOS FLEXIBILIDADE HORARIO EVENTOS PESSOAS AMIGAVEIS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FALTA DE HOME OFFICE TODO MUNDO E PARENTE / AMIGO DIFICULDADE DE TRILHA DE CARREIRA PREFERENCIAL PARA ALGUMAS PESSOAS ESTRATEGIA NAO MUITO CLARA</t>
+          <t>PROS: CRESCIMENTO TECNICO CONSTANTE, COM MUITAS PESSOAS PRESTATIVAS QUE ESTAO DISPOSTAS A TE AJUDAR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-0.02146335  0.01343745 -0.03051264 ...  0.0219744  -0.00451686
- -0.00563777]</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
+          <t>LIDERANCA POUCO COMUNICATIVA E FALTA DE ACOMPANHAMENTO E FEEDBACK</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[-0.02933137 -0.00293115 -0.04120931 ...  0.00564386 -0.0228805
+  0.03240553]</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2422388345003128</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>-17.67804908752441</v>
+        <v>-18.78408622741699</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-5.129587173461914</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ASSISTENTE INVESTIMENTOS II</t>
+          <t>ADVISORY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROS: CARTAO ALIMENTACAO
-CARTAO REFEICAO
-LIDERANCA EXCELENTE
-BOM AMBIENTE DE TRABALHO
-TIMES ENGAJADOS | CONTRAS: FALTA DE PLANO DE CARREIRA
-SEM UM PROGRAMA TRAINEE
-PODE-SE FICAR DURANTE MUITO TEMPO NA MESMA FUNCAO</t>
+          <t>PROS: PROGRESSAO DE CARREIRA, LIBERDADE, BONS SISTEMAS | CONTRAS: DESORGANIZACAO DA GESTAO DA AREA COMERCIAL.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6 de mai. de 2024</t>
+          <t>17 de jan. de 2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PROS: CARTAO ALIMENTACAO
-CARTAO REFEICAO
-LIDERANCA EXCELENTE
-BOM AMBIENTE DE TRABALHO
-TIMES ENGAJADOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FALTA DE PLANO DE CARREIRA
-SEM UM PROGRAMA TRAINEE
-PODE-SE FICAR DURANTE MUITO TEMPO NA MESMA FUNCAO</t>
+          <t>PROS: PROGRESSAO DE CARREIRA, LIBERDADE, BONS SISTEMAS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-0.03386144  0.00613496 -0.04895138 ... -0.03348283 -0.02713211
-  0.01918357]</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
+          <t>DESORGANIZACAO DA GESTAO DA AREA COMERCIAL.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[-0.0164147   0.02410053 -0.04629029 ... -0.00500852 -0.02866348
+ -0.00133962]</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.484757900238037</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>-23.99032211303711</v>
+        <v>-18.94277763366699</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-8.039107322692871</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>ANALISTA DE FORMALIZACAO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA APRESENTA BOAS OPORTUNIDADES DE CRESCIMENTO PARA QUEM QUER CORRER ATRAS DELAS, SE O FUNCIONARIO SE DEDICAR A ENTENDER ALEM DO SEU ESCOPO, POR ESTAR AINDA EM FASE DE CRESCIMENTO, E POSSIVEL SUBIR NA CARREIRA. | CONTRAS: NAO POSSUI PLANO DE CARREIRAS BEM DEFINIDO</t>
+          <t>PROS: A EMPRESA INTER GOSTEI MUITO DE TRABALHAR . | CONTRAS: GESTORES AUTORITARIOS E NARCICISTA, ALGUNS COM PENSAMENTOS BEM ANTIGOS.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18 de jan. de 2024</t>
+          <t>14 de jan. de 2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA APRESENTA BOAS OPORTUNIDADES DE CRESCIMENTO PARA QUEM QUER CORRER ATRAS DELAS, SE O FUNCIONARIO SE DEDICAR A ENTENDER ALEM DO SEU ESCOPO, POR ESTAR AINDA EM FASE DE CRESCIMENTO, E POSSIVEL SUBIR NA CARREIRA.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NAO POSSUI PLANO DE CARREIRAS BEM DEFINIDO</t>
+          <t>PROS: A EMPRESA INTER GOSTEI MUITO DE TRABALHAR .</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-0.01927086 -0.02248207 -0.0225171  ... -0.0145882   0.00879557
- -0.01895444]</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
+          <t>GESTORES AUTORITARIOS E NARCICISTA, ALGUNS COM PENSAMENTOS BEM ANTIGOS.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[-0.03358952  0.00783642 -0.03161237 ...  0.01853903  0.00104886
+ -0.07996498]</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>9.471966743469238</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>-18.39048767089844</v>
+        <v>-16.47315788269043</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-11.89820861816406</v>
       </c>
     </row>
     <row r="22">
@@ -1407,2886 +1498,4622 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE TRANQUILO, FLEXIBILIDADE, VALORIZACAO OK | CONTRAS: NAO HA PLANO DE CARREIRA ESPECIFICO</t>
+          <t>PROS: BENEFICIOS - VALE ALIMENTACAO, BOM PLANO DE SAUDE. | CONTRAS: CULTURA, MAUS GESTORES, FALTA DE PLANEJAMENTO E PROCESSOS.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22 de mar. de 2024</t>
+          <t>6 de jan. de 2025</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE TRANQUILO, FLEXIBILIDADE, VALORIZACAO OK</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NAO HA PLANO DE CARREIRA ESPECIFICO</t>
+          <t>PROS: BENEFICIOS - VALE ALIMENTACAO, BOM PLANO DE SAUDE.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-0.0314312  -0.02437196 -0.02741832 ... -0.00057441  0.00524931
- -0.0046807 ]</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2</v>
+          <t>CULTURA, MAUS GESTORES, FALTA DE PLANEJAMENTO E PROCESSOS.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[-0.03325478  0.00166798 -0.05406993 ... -0.00524665 -0.02136147
+ -0.02475783]</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>9.726651191711426</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>-18.91570472717285</v>
+        <v>-15.31517219543457</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-4.162796974182129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UX DESIGNER</t>
+          <t>DEV III</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM O SALARIO E OS VALORES DE VA E VR. | CONTRAS: DEMORA NA PROGRESSAO DE CARREIRA, VALES POUCO FLEXIVEIS E SEM BENEFICIOS COMO GYM PASS.</t>
+          <t>PROS: BOAS TECNOLOGIAS INOVACAO BONS BENEFICIOS | CONTRAS: EXISTEM MUITAS PANELAS NAS EQUIPES QUE DIFICULTAM O CRESCIMENTO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23 de jan. de 2024</t>
+          <t>2 de dez. de 2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PROS: MUITO BOM O SALARIO E OS VALORES DE VA E VR.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DEMORA NA PROGRESSAO DE CARREIRA, VALES POUCO FLEXIVEIS E SEM BENEFICIOS COMO GYM PASS.</t>
+          <t>PROS: BOAS TECNOLOGIAS INOVACAO BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-0.03574131 -0.00970949 -0.0582377  ... -0.04552178 -0.03850319
-  0.01859734]</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
+          <t>EXISTEM MUITAS PANELAS NAS EQUIPES QUE DIFICULTAM O CRESCIMENTO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[-0.01113291  0.01781632 -0.08344827 ... -0.00251914  0.01375561
+  0.03079119]</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.736069202423096</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.4341052770614624</v>
+        <v>-15.81075382232666</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.008306503295898</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ADVOGADO JUNIOR</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROS: NAO HA PROS. EMPRESA DESORGANIZADA E COM FALTA DE CLAREZA NAS SUAS COMUNICACOES E EXPECTATIVAS. NAO PAGAM PL (FAZEM FALSAS PROMESSAS NAS ENTREVISTAS). | CONTRAS: SEM UM PLANO DE CARREIRA DEFINIDO, AS PROMOCOES PARECEM BENEFICIAR APENAS AQUELES QUE TEM CONEXOES COM A DIRETORIA, EM VEZ DE SEREM BASEADAS NA MERITOCRACIA.</t>
+          <t>PROS: SALARIO E VALE REFEICAO E ALIMENTACAO ACIMA DO MERCADO. | CONTRAS: TRABALHO HIBRIDO, LIDERES POUCO SIMPATICOS OU PROLIXOS.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19 de out. de 2023</t>
+          <t>25 de nov. de 2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PROS: NAO HA PROS. EMPRESA DESORGANIZADA E COM FALTA DE CLAREZA NAS SUAS COMUNICACOES E EXPECTATIVAS. NAO PAGAM PL (FAZEM FALSAS PROMESSAS NAS ENTREVISTAS).</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SEM UM PLANO DE CARREIRA DEFINIDO, AS PROMOCOES PARECEM BENEFICIAR APENAS AQUELES QUE TEM CONEXOES COM A DIRETORIA, EM VEZ DE SEREM BASEADAS NA MERITOCRACIA.</t>
+          <t>PROS: SALARIO E VALE REFEICAO E ALIMENTACAO ACIMA DO MERCADO.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-0.06556069 -0.01879475 -0.0130957  ... -0.00017408  0.00208307
- -0.00474926]</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
+          <t>TRABALHO HIBRIDO, LIDERES POUCO SIMPATICOS OU PROLIXOS.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[-0.0444211  -0.00373423 -0.06025346 ...  0.04002001 -0.01193908
+ -0.01318343]</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>-9.154744148254395</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>-13.79071140289307</v>
+        <v>-16.72578811645508</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-13.36110496520996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE OPERACOES</t>
+          <t>DEV SPECIALIST</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROS: TODOS OS BENEFICIOS DE BANCARIOS SAO CONCEDIDOS | CONTRAS: DEPENDENDO DA AREA, NAO HA PLANO DE CARREIRA</t>
+          <t>PROS: TECNOLOGIA AVANCADA, GESTORES TECNICOS, PRODUTO INTERESSANTE, BOA EVOLUCAO DE CARREIRA | CONTRAS: FALTA UM POUCO DE TRANSPARENCIA AS VEZES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21 de dez. de 2023</t>
+          <t>8 de nov. de 2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PROS: TODOS OS BENEFICIOS DE BANCARIOS SAO CONCEDIDOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DEPENDENDO DA AREA, NAO HA PLANO DE CARREIRA</t>
+          <t>PROS: TECNOLOGIA AVANCADA, GESTORES TECNICOS, PRODUTO INTERESSANTE, BOA EVOLUCAO DE CARREIRA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-0.02842817 -0.00402645 -0.03947248 ... -0.01187215  0.02365368
-  0.00466867]</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
+          <t>FALTA UM POUCO DE TRANSPARENCIA AS VEZES</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[-0.03377041 -0.01995661 -0.06771704 ... -0.01711566 -0.0052718
+ -0.03124231]</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>8.278271675109863</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>-19.24788665771484</v>
+        <v>-17.53647422790527</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.880457401275635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANALISTA DE SOLUCOES II</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROS: O TIME, COM CERTEZA, E UMA GRANDE VANTAGEM. TEM MUITA GENTE BOA NO INTER. | CONTRAS: NAO HA VISIBILIDADE DE UM PLANO DE DESENVOLVIMENTO DE CARREIRA. ALEM DISSO, AS REESTRUTURACOES (DEMISSOES) QUE VEM OCORRENDO GERAM CERTA INSEGURANCA. DEMANDAS URGENTES QUE VEM DE CIMA E QUE GERAM SOBRECARGA NOS TIMES.</t>
+          <t>PROS: VALE ALIMENTACAO / REFEICAO; CONHECIMENTO TECNICO E DESAFIOS. | CONTRAS: SEMPRE NAO ALCANCAVA AS METAS PARA PAGAMENTO DA PL; DIFICULDADE PARA PROMOCOES/AUMENTOS.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16 de ago. de 2023</t>
+          <t>5 de nov. de 2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PROS: O TIME, COM CERTEZA, E UMA GRANDE VANTAGEM. TEM MUITA GENTE BOA NO INTER.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NAO HA VISIBILIDADE DE UM PLANO DE DESENVOLVIMENTO DE CARREIRA. ALEM DISSO, AS REESTRUTURACOES (DEMISSOES) QUE VEM OCORRENDO GERAM CERTA INSEGURANCA. DEMANDAS URGENTES QUE VEM DE CIMA E QUE GERAM SOBRECARGA NOS TIMES.</t>
+          <t>PROS: VALE ALIMENTACAO / REFEICAO; CONHECIMENTO TECNICO E DESAFIOS.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-0.0281479   0.01252659 -0.03232905 ... -0.01343051  0.0261637
- -0.01479755]</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2</v>
+          <t>SEMPRE NAO ALCANCAVA AS METAS PARA PAGAMENTO DA PL; DIFICULDADE PARA PROMOCOES/AUMENTOS.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[-0.03385317 -0.00509886 -0.04548428 ... -0.01273811 -0.01537079
+  0.0068456 ]</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>-15.63031578063965</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>-12.20013999938965</v>
+        <v>-8.904144287109375</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.124370098114014</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ANALISTA DE SOLUCOES</t>
+          <t>DESENVOLVEDOR SENIOR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL AO MERCADO FINANCEIRO. | CONTRAS: FALTA PROGRAMA DE CRESCIMENTO E EVOLUCAO SALARIAL. PLR NUNCA TEM</t>
+          <t>PROS: TECNOLOGIAS ATUAIS E CRESCIMENTO TECNICO | CONTRAS: MUITA BUROCRACIA, DECISOES QUE AFETAM TODOS SAO TOMADAS PELO CEO DE FORMA ARBITRARIA, POUQUISSIMOS AUMENTOS NO SALARIO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17 de set. de 2023</t>
+          <t>30 de out. de 2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PROS: SALARIO COMPATIVEL AO MERCADO FINANCEIRO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FALTA PROGRAMA DE CRESCIMENTO E EVOLUCAO SALARIAL. PLR NUNCA TEM</t>
+          <t>PROS: TECNOLOGIAS ATUAIS E CRESCIMENTO TECNICO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-0.09462182  0.01727812 -0.02582617 ... -0.01134695  0.0033105
-  0.01943767]</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
+          <t>MUITA BUROCRACIA, DECISOES QUE AFETAM TODOS SAO TOMADAS PELO CEO DE FORMA ARBITRARIA, POUQUISSIMOS AUMENTOS NO SALARIO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[-0.01820626 -0.01719689 -0.03785701 ...  0.02372842 -0.04456519
+  0.02589286]</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>5.221606731414795</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>-13.23469638824463</v>
+        <v>-25.55826568603516</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-3.399539232254028</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROS: ESTRUTURA DE TRABALHO BOA LOCALIZACAO BOA | CONTRAS: NAO TEM PLANO DE CARREIRA FALTA DE COMUNICACAO COM OS FUNCIONARIOS</t>
+          <t>PROS: VOCE IRA APRENDER COISAS NOVAS SEMPRE SE BUSCAR. | CONTRAS: POUCA OPORTUNIDADE DE CRESCIMENTO, SENDO O ACRESCIMENTO SALARIO BAIXO QUANDO SOBE DE CARGO.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20 de ago. de 2023</t>
+          <t>30 de set. de 2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PROS: ESTRUTURA DE TRABALHO BOA LOCALIZACAO BOA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA FALTA DE COMUNICACAO COM OS FUNCIONARIOS</t>
+          <t>PROS: VOCE IRA APRENDER COISAS NOVAS SEMPRE SE BUSCAR.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-0.03036717 -0.01024634 -0.03548039 ... -0.00018832  0.01337758
- -0.01967991]</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2</v>
+          <t>POUCA OPORTUNIDADE DE CRESCIMENTO, SENDO O ACRESCIMENTO SALARIO BAIXO QUANDO SOBE DE CARGO.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[-0.05835292  0.05015929 -0.06159577 ...  0.00648925 -0.01728176
+ -0.01612266]</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95302414894104</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>-16.5166130065918</v>
+        <v>-6.75700044631958</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.605538845062256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANALISTA DE NEGOCIOS</t>
+          <t>ASSISTENTE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA CRESCEU MUITO NOS ULTIMO ANOS, ISSO POSSIBILITOU MUITA APRENDIZAGEM EM DIVERSAS AREAS. AS PESSOAS QUE TRABALHAM SAO MUITO ENGAJADAS E QUEREM FAZER PARTE. | CONTRAS: A GESTAO E MUITO ENGESSADA. NAO EXISTE REGRAS CLARAS EM TRANSPARENCIA. NAO HA PLANO DE CARREIRA OU PLANO DE DESENVOLVIMENTO INDIVIDUAL (PELO MENOS NA AREA DE MEIOS DE PAGAMENTO).</t>
+          <t>PROS: TRABALHAR NO INTER E DESENVOLVEDOR E MUITO BOM. | CONTRAS: EM ALGUMAS OCASIOES OS LIDERES DEIXAM A DESEJAR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31 de mai. de 2023</t>
+          <t>7 de out. de 2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PROS: A EMPRESA CRESCEU MUITO NOS ULTIMO ANOS, ISSO POSSIBILITOU MUITA APRENDIZAGEM EM DIVERSAS AREAS. AS PESSOAS QUE TRABALHAM SAO MUITO ENGAJADAS E QUEREM FAZER PARTE.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A GESTAO E MUITO ENGESSADA. NAO EXISTE REGRAS CLARAS EM TRANSPARENCIA. NAO HA PLANO DE CARREIRA OU PLANO DE DESENVOLVIMENTO INDIVIDUAL (PELO MENOS NA AREA DE MEIOS DE PAGAMENTO).</t>
+          <t>PROS: TRABALHAR NO INTER E DESENVOLVEDOR E MUITO BOM.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-0.02782081  0.00939581 -0.03817125 ... -0.01784894 -0.02262657
- -0.01746621]</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
+          <t>EM ALGUMAS OCASIOES OS LIDERES DEIXAM A DESEJAR</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[-0.02738281 -0.00664268 -0.05921756 ... -0.01189495 -0.00444413
+ -0.05085613]</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>-19.25897026062012</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>-3.783360719680786</v>
+        <v>-17.83833694458008</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-14.60958862304688</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE DADOS</t>
+          <t>DESENVOLVEDOR PLENO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROS: VR/VA BONS E SALARIO OK | CONTRAS: SEM PLANO DE CARREIRA, MUITA ENROLACAO POR PARTE DOS GESTORES E REGIME TOTALMENTE PRESENCIAL</t>
+          <t>PROS: TEM UMA VISTA MANEIRA KKK | CONTRAS: LIDERANCA MUITO INFANTIL, BRIGAM POR BOBEIRA E NAO TEM FOCO NENHUM EM. RESULTADOS.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28 de ago. de 2023</t>
+          <t>14 de out. de 2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PROS: VR/VA BONS E SALARIO OK</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SEM PLANO DE CARREIRA, MUITA ENROLACAO POR PARTE DOS GESTORES E REGIME TOTALMENTE PRESENCIAL</t>
+          <t>PROS: TEM UMA VISTA MANEIRA KKK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-0.02450395  0.00704765 -0.01301633 ... -0.00221613 -0.01699404
- -0.01848157]</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
+          <t>LIDERANCA MUITO INFANTIL, BRIGAM POR BOBEIRA E NAO TEM FOCO NENHUM EM. RESULTADOS.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[-0.04133682  0.01679912 -0.07416233 ...  0.01344351 -0.00129795
+ -0.00998277]</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>12.56935691833496</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>-13.33384990692139</v>
+        <v>-22.81207847595215</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-6.962876796722412</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>ANALISTA II</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROS: MUITOS BENEFICIOS PARA OS FUNCIONARIOS | CONTRAS: NAO RECONHECE BEM OS FUNCIONARIOS. SEM PLANOS DE CARREIRA</t>
+          <t>PROS: BOM AMBIENTE DE TRABALHO, ONDE TEM PESSOAS DISPOSTAS A AJUDAR NO CRESCIMENTO PROFISSIONAL, MAS CADA SQUAD E DE UM JEITO, DEPENDENDO DO SQUAD, PARECE QUE VOCE ESTA EM OUTRA EMPRESA. | CONTRAS: A EMPRESA CRESCEU MUITO E FALTA UMA POSTURA DA GESTAO EM DETERMINADOS MOMENTOS MAIS FIRME EM ALGUNS MOMENTOS.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25 de ago. de 2023</t>
+          <t>18 de jul. de 2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PROS: MUITOS BENEFICIOS PARA OS FUNCIONARIOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NAO RECONHECE BEM OS FUNCIONARIOS. SEM PLANOS DE CARREIRA</t>
+          <t>PROS: BOM AMBIENTE DE TRABALHO, ONDE TEM PESSOAS DISPOSTAS A AJUDAR NO CRESCIMENTO PROFISSIONAL, MAS CADA SQUAD E DE UM JEITO, DEPENDENDO DO SQUAD, PARECE QUE VOCE ESTA EM OUTRA EMPRESA.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.03730956 -0.01668297 -0.03723031 ...  0.01483482  0.0106878
- -0.01403979]</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
+          <t>A EMPRESA CRESCEU MUITO E FALTA UMA POSTURA DA GESTAO EM DETERMINADOS MOMENTOS MAIS FIRME EM ALGUNS MOMENTOS.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[-0.03150835  0.01653063 -0.05180935 ...  0.01260583 -0.05818412
+ -0.03821256]</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>10.92033100128174</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>-18.04522323608398</v>
+        <v>-5.814900875091553</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.804152965545654</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DEV II</t>
+          <t>REDATOR PUBLICITARIO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROS: INOVADOR, MUITA TECNOLOGIA E ATUALIDADES | CONTRAS: SEM PLANO DE CARREIRA DEFINIDO.</t>
+          <t>PROS: SALARIO, BENEFICIOS E EQUIPAMENTOS DE TRABALHO. | CONTRAS: FALTA DE COMUNICACAO ENORME QUE ATRAPALHA E ATRASA O ANDAMENTO DOS TRABALHOS.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13 de jul. de 2023</t>
+          <t>28 de ago. de 2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PROS: INOVADOR, MUITA TECNOLOGIA E ATUALIDADES</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SEM PLANO DE CARREIRA DEFINIDO.</t>
+          <t>PROS: SALARIO, BENEFICIOS E EQUIPAMENTOS DE TRABALHO.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-0.04658868  0.00896034 -0.0312462  ... -0.00667747  0.00690194
-  0.01087684]</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
+          <t>FALTA DE COMUNICACAO ENORME QUE ATRAPALHA E ATRASA O ANDAMENTO DOS TRABALHOS.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[-0.00671111  0.02844072 -0.04336695 ... -0.01242276 -0.04763588
+  0.00035472]</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>6.288011074066162</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>-18.63517761230469</v>
+        <v>-21.50621795654297</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.960624098777771</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UX PRODUCT DESIGNER JR</t>
+          <t>ANALISTA DE PROJETOS SENIOR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, CONTRATO, PLANO DE SAUDE | CONTRAS: OBJETIVOS, PLANO DE CARREIRA, CULTURA</t>
+          <t>PROS: BOA EMPRESA PARA SE TRABALHAR, BONS BENEFICIOS. | CONTRAS: FALTA TRANSPARENCIA, DIFICULDADE DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28 de mai. de 2023</t>
+          <t>3 de set. de 2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, CONTRATO, PLANO DE SAUDE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OBJETIVOS, PLANO DE CARREIRA, CULTURA</t>
+          <t>PROS: BOA EMPRESA PARA SE TRABALHAR, BONS BENEFICIOS.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-0.0340329  -0.02915921 -0.05058742 ... -0.0086777   0.01490169
- -0.00538163]</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>2</v>
+          <t>FALTA TRANSPARENCIA, DIFICULDADE DE CRESCIMENTO.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[-0.03474476  0.01369271 -0.03970217 ...  0.00327911 -0.01098605
+  0.00753061]</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>7.853341579437256</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>-26.28346061706543</v>
+        <v>-16.92294120788574</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.40680456161499</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANALISTA DE ANTIFRAUDE</t>
+          <t>BUSINESS INTELLIGENCE ANALYST II</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROS: . BENEFICIOS VA E VR . PLANO DE SAUDE | CONTRAS: . SEM HOMEOFFICE . FALTA DE PLANO DE CARREIRA . DEMORA EM PROMOVER OS FUNCIONARIOS . GESTARES DESQUALIFICADOS</t>
+          <t>PROS: AMBIENTE COOPERATIVO, BOM CLIMA, TECNOLOGICO. | CONTRAS: E DIFICIL CONSEGUIR CRESCER RAPIDO.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8 de abr. de 2023</t>
+          <t>2 de set. de 2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PROS: . BENEFICIOS VA E VR . PLANO DE SAUDE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>. SEM HOMEOFFICE . FALTA DE PLANO DE CARREIRA . DEMORA EM PROMOVER OS FUNCIONARIOS . GESTARES DESQUALIFICADOS</t>
+          <t>PROS: AMBIENTE COOPERATIVO, BOM CLIMA, TECNOLOGICO.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[-0.07316014  0.01503977 -0.03692727 ... -0.01892196 -0.00116569
- -0.02895473]</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>2</v>
+          <t>E DIFICIL CONSEGUIR CRESCER RAPIDO.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[-0.02114617  0.06113766 -0.03622606 ... -0.01170391 -0.02953281
+  0.04918536]</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>-21.76081848144531</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>-5.960062980651855</v>
+        <v>-16.43688774108887</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8.184797286987305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>TECH ANALYST</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE DE HORARIO BENEFICIOS - VA, VR | CONTRAS: SEM PLANO DE CARREIRA SEM HOME OFFICE</t>
+          <t>PROS: AS PESSOAS SAO BEM PRESTATIVAS. OFERECE UMA BOA DIVISAO DOS CARGOS. | CONTRAS: POUCA FLEXIBILIDADE EM QUESTAO DE HORARIO.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8 de mai. de 2023</t>
+          <t>21 de ago. de 2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PROS: FLEXIBILIDADE DE HORARIO BENEFICIOS - VA, VR</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SEM PLANO DE CARREIRA SEM HOME OFFICE</t>
+          <t>PROS: AS PESSOAS SAO BEM PRESTATIVAS. OFERECE UMA BOA DIVISAO DOS CARGOS.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[-0.03212108 -0.00489129 -0.0227904  ... -0.01010803 -0.03826122
-  0.01391111]</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
+          <t>POUCA FLEXIBILIDADE EM QUESTAO DE HORARIO.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[-0.01545388  0.00963418 -0.0459693  ... -0.01057779 -0.02869875
+  0.01931028]</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>33.01010513305664</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>-15.05164623260498</v>
+        <v>-14.93632698059082</v>
+      </c>
+      <c r="K35" t="n">
+        <v>16.12054824829102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DEV I</t>
+          <t>ASSISTENTE DE CX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM, BONS BENEFICIOS E SALARIOS | CONTRAS: FALTA DE PLANO DE CARREIRA</t>
+          <t>PROS: EXCELENTES BENEFICIOS, CLIMA AGRADAVEL, BOA LOCALIZACAO | CONTRAS: GESTAO INEFICIENTE EM ALGUMAS AREAS, COMUNICACAO INTERNA RUIM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3 de mai. de 2023</t>
+          <t>24 de jul. de 2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE BOM, BONS BENEFICIOS E SALARIOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FALTA DE PLANO DE CARREIRA</t>
+          <t>PROS: EXCELENTES BENEFICIOS, CLIMA AGRADAVEL, BOA LOCALIZACAO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[-0.03353021  0.00106608 -0.03146442 ... -0.00215767 -0.00696714
-  0.01181659]</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
+          <t>GESTAO INEFICIENTE EM ALGUMAS AREAS, COMUNICACAO INTERNA RUIM</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[-0.02408892  0.04384462 -0.03747316 ... -0.02416669  0.0108347
+ -0.03712773]</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>6.128629684448242</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>-20.26275444030762</v>
+        <v>-21.84101867675781</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.48222827911377</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ASSESSOR DE INVESTIMENTOS</t>
+          <t>ANALISTA DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIZAM PESSOAS SEM MUITA EXPERIENCIA ESPECIFICA, ESCUTAM BASTANTE OS FUNCIONARIOS, COBRANCA CONSCIENTE. | CONTRAS: NAO EXISTE REMUNERACAO VARIAVEL NEM PROGRESSAO DE CARREIRA, A EMPRESA VIVE EM PROL DE TROCAR O PNEU COM O CARRO ANDANDO, NADA E ORGANIZADO, NADA E PLANEJADO COM A DEVIDA ANTECEDENCIA.</t>
+          <t>PROS: CARTAO BLACK PLR CAFE VA VR | CONTRAS: LIDERANCA RUIM GERENTES SEM CONHECIMENTO DAS AREAS NAO EXISTE OPORTUNIDADE PARA MUDAR DE TIME</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13 de jan. de 2023</t>
+          <t>21 de ago. de 2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PROS: OPORTUNIZAM PESSOAS SEM MUITA EXPERIENCIA ESPECIFICA, ESCUTAM BASTANTE OS FUNCIONARIOS, COBRANCA CONSCIENTE.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NAO EXISTE REMUNERACAO VARIAVEL NEM PROGRESSAO DE CARREIRA, A EMPRESA VIVE EM PROL DE TROCAR O PNEU COM O CARRO ANDANDO, NADA E ORGANIZADO, NADA E PLANEJADO COM A DEVIDA ANTECEDENCIA.</t>
+          <t>PROS: CARTAO BLACK PLR CAFE VA VR</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[-0.0557252   0.00644441  0.00757176 ...  0.00079207 -0.02027804
-  0.01750491]</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
+          <t>LIDERANCA RUIM GERENTES SEM CONHECIMENTO DAS AREAS NAO EXISTE OPORTUNIDADE PARA MUDAR DE TIME</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[-0.03272038  0.02723632 -0.01600509 ... -0.00179399  0.0178471
+ -0.01129176]</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>8.150269508361816</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>-15.3685302734375</v>
+        <v>-12.84056377410889</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-7.425482749938965</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ANALISTA DE NEGOCIOS PLENO</t>
+          <t>DESENVOLVEDOR JUNIOR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE MUITOS DESAFIOS E APRENDIZADOS | CONTRAS: NAO TEM PLANO DE DESENVOLVIMENTO, PROMOCOES NAO ACONTECEM</t>
+          <t>PROS: TECNOLOGIAS ATUALIZADAS, REFERENCIAS TECNICAS NAS EQUIPES E POSSIBILIDADE DE CRESCIMENTO. | CONTRAS: PRAZOS CURTOS, IMEDIATISMO, FALTA DE TATO.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>29 de mar. de 2023</t>
+          <t>5 de jul. de 2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE MUITOS DESAFIOS E APRENDIZADOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE DESENVOLVIMENTO, PROMOCOES NAO ACONTECEM</t>
+          <t>PROS: TECNOLOGIAS ATUALIZADAS, REFERENCIAS TECNICAS NAS EQUIPES E POSSIBILIDADE DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-0.02023727  0.00096294 -0.02381622 ... -0.00475877  0.02008811
- -0.01817007]</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>2</v>
+          <t>PRAZOS CURTOS, IMEDIATISMO, FALTA DE TATO.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[-0.02973883  0.02414671 -0.0362806  ... -0.01920254 -0.063781
+ -0.04809033]</t>
+        </is>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>3.645902156829834</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>-13.00213241577148</v>
+        <v>-19.81271362304688</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-3.367336511611938</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>DESENVOLVEDOR JUNIOR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE OTIMO, SEM MUITA COBRANCA. | CONTRAS: PL BAIXA, CERCA DE 1 SALARIO. NAO POSSUI PLANO DE CARREIRA</t>
+          <t>PROS: AMBIENTE PROPICIO PARA APRENDIZADO PARA CARREIRA INICIANTE. | CONTRAS: POR SE TRATAR DE UM BANCO, EXISTE MUITA BUROCRACIA NAS ATIVIDADES.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8 de jan. de 2023</t>
+          <t>27 de jun. de 2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE OTIMO, SEM MUITA COBRANCA.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PL BAIXA, CERCA DE 1 SALARIO. NAO POSSUI PLANO DE CARREIRA</t>
+          <t>PROS: AMBIENTE PROPICIO PARA APRENDIZADO PARA CARREIRA INICIANTE.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-0.05117989  0.01027628 -0.07945871 ...  0.01777121  0.00812272
- -0.02310559]</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2</v>
+          <t>POR SE TRATAR DE UM BANCO, EXISTE MUITA BUROCRACIA NAS ATIVIDADES.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[-0.00439586 -0.01596741 -0.04565724 ... -0.00217553 -0.02445067
+  0.00573935]</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>7.273704528808594</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>-13.59863090515137</v>
+        <v>2.05193042755127</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15.03713798522949</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR PLENO</t>
+          <t>CUSTOMER SUCCESS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS NOVAS, EQUIPE AJUDA MUITO. | CONTRAS: PAGA POUCO E MUITA PRESSAO. NAO EXISTE PLANO DE CARREIRA. 1 ANO PRA FAZER 1:1... ABSURDO!</t>
+          <t>PROS: BONS BENEFICIOS
+SALARIO COMPATIVEL COM O MERCADO
+FLEXIBILIDADE | CONTRAS: GESTAO RUIM
+COBRANCAS EXCESSIVAS
+FALTA DE TRANSPARENCIA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9 de jan. de 2023</t>
+          <t>2 de jul. de 2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PROS: TECNOLOGIAS NOVAS, EQUIPE AJUDA MUITO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PAGA POUCO E MUITA PRESSAO. NAO EXISTE PLANO DE CARREIRA. 1 ANO PRA FAZER 1:1... ABSURDO!</t>
+          <t>PROS: BONS BENEFICIOS
+SALARIO COMPATIVEL COM O MERCADO
+FLEXIBILIDADE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-0.03256531  0.01091283 -0.04852659 ... -0.02216491 -0.03891827
-  0.00291276]</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
+          <t>GESTAO RUIM
+COBRANCAS EXCESSIVAS
+FALTA DE TRANSPARENCIA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[-0.03423931  0.01712368 -0.02427774 ... -0.03036644 -0.01303698
+ -0.01773033]</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>6.166458129882812</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>-15.34527111053467</v>
+        <v>-21.74101257324219</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.92632007598877</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>ANALISTA DE PROCESSOS JUNIOR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DINAMICO E POSSIBILIDADE DE APRENDIZADO | CONTRAS: FALTA DE PLANO DE CARREIRA</t>
+          <t>PROS: BENEFICIOS SAO ACIMA DO MERCADO | CONTRAS: AUSENCIA DE AJUDA DA ALTA GESTAO NAS MELHORIAS DE PROCESSOS.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11 de jan. de 2023</t>
+          <t>18 de jun. de 2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DINAMICO E POSSIBILIDADE DE APRENDIZADO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FALTA DE PLANO DE CARREIRA</t>
+          <t>PROS: BENEFICIOS SAO ACIMA DO MERCADO</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-0.03353021  0.00106608 -0.03146442 ... -0.00215767 -0.00696714
-  0.01181659]</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
+          <t>AUSENCIA DE AJUDA DA ALTA GESTAO NAS MELHORIAS DE PROCESSOS.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[-0.04367987  0.00155049 -0.05454401 ... -0.00076592 -0.0258935
+  0.02137826]</t>
+        </is>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>6.128629684448242</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>-20.26275444030762</v>
+        <v>-16.33356285095215</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-2.152059078216553</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE SUCESSO DO CLIENTE</t>
+          <t>JUNIOR PRODUCT ANALYST</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM CLIMA ORGANIZACIONAL E BONS BENEFICIOS. | CONTRAS: FALTA DE DEFINICAO SOBRE PLANO DE CARREIRA</t>
+          <t>PROS: EXCELENTE AMBIENTE PARA ADQUIRIR CONHECIMENTO | CONTRAS: FALTA DE RECONHECIMENTO FINANCEIRO DENTRO DO BANCO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19 de nov. de 2022</t>
+          <t>14 de jun. de 2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA COM BOM CLIMA ORGANIZACIONAL E BONS BENEFICIOS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FALTA DE DEFINICAO SOBRE PLANO DE CARREIRA</t>
+          <t>PROS: EXCELENTE AMBIENTE PARA ADQUIRIR CONHECIMENTO</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.036652   -0.01292429 -0.0344258  ... -0.02318338  0.02607229
-  0.00074452]</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
+          <t>FALTA DE RECONHECIMENTO FINANCEIRO DENTRO DO BANCO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[ 0.005376    0.01055486 -0.06282976 ...  0.03343309 -0.00949242
+ -0.00830766]</t>
+        </is>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>7.030383110046387</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>-20.41412734985352</v>
+        <v>-15.78389835357666</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.960391283035278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AGENTE DE NEGOCIOS</t>
+          <t>ANALISTA DE NEGOCIOS SENIOR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS E AMBIENTE LEVE | CONTRAS: SEM PROGRESSAO DE CARREIRA, SOMENTE PROS BAJULADORES.</t>
+          <t>PROS: TECNOLOGIA DE PONTA NO DESENVOLVIMENTO DO SEU PRINCIPAL APLICATIVO. | CONTRAS: IMENSA BUROCRACIA PARA DESENVOLVIMENTO DE PROJETOS QUE IRAO SER UTEIS E FUNDAMENTAIS PARA OUTRAS AREAS.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23 de nov. de 2022</t>
+          <t>13 de mar. de 2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS E AMBIENTE LEVE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SEM PROGRESSAO DE CARREIRA, SOMENTE PROS BAJULADORES.</t>
+          <t>PROS: TECNOLOGIA DE PONTA NO DESENVOLVIMENTO DO SEU PRINCIPAL APLICATIVO.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-0.07694758 -0.00046812 -0.06714206 ... -0.00169618 -0.00110293
-  0.01007235]</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
+          <t>IMENSA BUROCRACIA PARA DESENVOLVIMENTO DE PROJETOS QUE IRAO SER UTEIS E FUNDAMENTAIS PARA OUTRAS AREAS.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[-0.02612103  0.01509023 -0.01106055 ...  0.00234418 -0.00513553
+  0.0226353 ]</t>
+        </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>4.106698989868164</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>-14.52347469329834</v>
+        <v>-25.27132415771484</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1.620601177215576</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DEV 2</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROS: TRANQUILA E SEM MUITA AGONIA | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
+          <t>PROS: CHANCES DE CRESCIMENTO SE ESTIVER NO LOCAL CERTO NA HORA CERTA | CONTRAS: EMPRESA DESRESPEITOSA COM OS FUNCIONARIOS. FAZEM PROMESSAS QUE IMPACTAM EM DIVERSOS ASPECTOS DA VIDA E NAO CUMPREM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23 de nov. de 2022</t>
+          <t>19 de abr. de 2024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PROS: TRANQUILA E SEM MUITA AGONIA</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
+          <t>PROS: CHANCES DE CRESCIMENTO SE ESTIVER NO LOCAL CERTO NA HORA CERTA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[-0.02643432 -0.00140762 -0.03378791 ... -0.0161368   0.02001998
- -0.01518095]</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
+          <t>EMPRESA DESRESPEITOSA COM OS FUNCIONARIOS. FAZEM PROMESSAS QUE IMPACTAM EM DIVERSOS ASPECTOS DA VIDA E NAO CUMPREM</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[-0.04849714  0.02847231 -0.03125189 ...  0.00027345 -0.03645099
+ -0.04636156]</t>
+        </is>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>8.453985214233398</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>-18.15289115905762</v>
+        <v>-11.32244491577148</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.300268173217773</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO</t>
+          <t>GROUP PRODUCT MANAGER</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROS: MUITA INOVACAO, ABERTOS A MELHORIAS E SUGESTOES. BOM DIALOGO COM SUPERIORES. | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO.</t>
+          <t>PROS: MUITO DINAMICA, RAPIDA E COM OTIMA ESTRUTURA PARA FAZER AS COISAS ACONTECEREM. | CONTRAS: PROCESSOS DE GESTAO DE PESSOAS POUCO CLAROS.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17 de out. de 2022</t>
+          <t>31 de mai. de 2024</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PROS: MUITA INOVACAO, ABERTOS A MELHORIAS E SUGESTOES. BOM DIALOGO COM SUPERIORES.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO.</t>
+          <t>PROS: MUITO DINAMICA, RAPIDA E COM OTIMA ESTRUTURA PARA FAZER AS COISAS ACONTECEREM.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[-0.03359696  0.0036786  -0.04268498 ... -0.00997375  0.01508847
- -0.0133698 ]</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
+          <t>PROCESSOS DE GESTAO DE PESSOAS POUCO CLAROS.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[-0.01465449 -0.00689342 -0.08086906 ... -0.00351168 -0.01457551
+ -0.04870274]</t>
+        </is>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>6.968090057373047</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>-17.40925598144531</v>
+        <v>-20.34102058410645</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1835868358612061</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>ESTAGIARIO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROS: OS BENEFICIOS E CLIMA ORGANIZACIONAL SAO OS MAIORES ATRATIVOS. ALEM DE TERMOS REAJUSTES QUE NA MAIORIA DAS VEZES SUPERAM A INFLACAO, GANHO REAL. | CONTRAS: O PRINCIPAL PONTO NEGATIVO E A FALTA DE PLANO DE CARREIRA. NAO DA MOTIVACAO PARA SEGUIR. A FALTA DE OPORTUNIDADES DE CRESCIMENTO TAMBEM...</t>
+          <t>PROS: A REMUNERACAO ACIMA DA MEDIA DA AREA DE COMUNICACAO | CONTRAS: AREA DE COMUNICACAO/BRANDING DA MARCA ESTA COMPLETAMENTE PERDIDA E DESORGANIZADA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30 de abr. de 2017</t>
+          <t>15 de mai. de 2024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PROS: OS BENEFICIOS E CLIMA ORGANIZACIONAL SAO OS MAIORES ATRATIVOS. ALEM DE TERMOS REAJUSTES QUE NA MAIORIA DAS VEZES SUPERAM A INFLACAO, GANHO REAL.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>O PRINCIPAL PONTO NEGATIVO E A FALTA DE PLANO DE CARREIRA. NAO DA MOTIVACAO PARA SEGUIR. A FALTA DE OPORTUNIDADES DE CRESCIMENTO TAMBEM...</t>
+          <t>PROS: A REMUNERACAO ACIMA DA MEDIA DA AREA DE COMUNICACAO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[-0.04471892  0.0027168  -0.0302199  ... -0.00994564  0.01570953
-  0.01683408]</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
+          <t>AREA DE COMUNICACAO/BRANDING DA MARCA ESTA COMPLETAMENTE PERDIDA E DESORGANIZADA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[-0.03168812  0.01863426 -0.04016678 ...  0.00971265  0.01491281
+  0.03080975]</t>
+        </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>-19.91225624084473</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>-12.5836067199707</v>
+        <v>-20.1557445526123</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-7.129634857177734</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>ANALISTA DE AUTOMACAO PLENO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DISCONTRAIDO, BONS COLEGAS DE EQUIPE, OPORTUNIDADE DE CONHECER VARIAS DAS AREAS DE NEGOCIO DA EMPRESA, GRANDES CHANCES DE EFETIVACAO E POSSIBILIDADES DE CRESCIMENTO. | CONTRAS: AUSENCIA DE UM PLANO DE CARREIRA ESTRUTURADO E BEM ESTABELECIDO. DEPENDENDO DO CARGO, OS SALARIOS SAO UM POUCO INFERIORES AOS PRATICADOS NO MERCADO POR OUTRAS EMPRESAS DO MESMO SEGMENTO.</t>
+          <t>PROS: MODELO SEMI-PRESENCIAL (COM 1 A 3 DIAS DE HOME POR SEMANA), SALARIO COMPETITIVO E AMBIENTE QUE INCENTIVA O CRESCIMENTO. | CONTRAS: ALGUMAS AREAS SOFREM COM MAUS GESTORES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18 de dez. de 2016</t>
+          <t>10 de mai. de 2024</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DISCONTRAIDO, BONS COLEGAS DE EQUIPE, OPORTUNIDADE DE CONHECER VARIAS DAS AREAS DE NEGOCIO DA EMPRESA, GRANDES CHANCES DE EFETIVACAO E POSSIBILIDADES DE CRESCIMENTO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AUSENCIA DE UM PLANO DE CARREIRA ESTRUTURADO E BEM ESTABELECIDO. DEPENDENDO DO CARGO, OS SALARIOS SAO UM POUCO INFERIORES AOS PRATICADOS NO MERCADO POR OUTRAS EMPRESAS DO MESMO SEGMENTO.</t>
+          <t>PROS: MODELO SEMI-PRESENCIAL (COM 1 A 3 DIAS DE HOME POR SEMANA), SALARIO COMPETITIVO E AMBIENTE QUE INCENTIVA O CRESCIMENTO.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-0.06748341  0.00948522 -0.06912205 ...  0.01882972 -0.00608756
- -0.00761004]</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
+          <t>ALGUMAS AREAS SOFREM COM MAUS GESTORES</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[-0.00780926  0.01126282 -0.05746382 ...  0.01419471 -0.00397521
+ -0.05057109]</t>
+        </is>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>-18.01708030700684</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>-8.955392837524414</v>
+        <v>-23.25911140441895</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.473706245422363</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>DESENVOLVEDOR IOS PLENO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, BONS BENEFICIOS, MAS SAO OBRIGATORIOS DO SINDICATO DOS BANCARIOS. | CONTRAS: SALARIOS BEM ABAIXO DO MERCADO, DECISOES TOP DOWN, NAO OFERECE PLANO DE CARREIRA, TAMPOUCO OPORTUNIDADE DE CRESCIMENTO. ESTRUTURA COMPLETAMENTE ENGESSADA.</t>
+          <t>PROS: DIFERENTE DE MUITAS EMPRESAS NAO HOUVE UM LAYOFF MAS ALGUMAS DEMISSOES OCORRERAM COMO FORMA DE REESTRUTURACAO | CONTRAS: NO PERIODO DA PANDEMIAS HOUVE UM GRANDE INVESTIMENTO EM CONTRATACAO E EVOLUCOES DE CARGOS MAS DE LA PRA CA, POUCO SE VE PROMOCOES E GRATIFICACOES.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17 de jun. de 2022</t>
+          <t>1 de fev. de 2024</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE, BONS BENEFICIOS, MAS SAO OBRIGATORIOS DO SINDICATO DOS BANCARIOS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SALARIOS BEM ABAIXO DO MERCADO, DECISOES TOP DOWN, NAO OFERECE PLANO DE CARREIRA, TAMPOUCO OPORTUNIDADE DE CRESCIMENTO. ESTRUTURA COMPLETAMENTE ENGESSADA.</t>
+          <t>PROS: DIFERENTE DE MUITAS EMPRESAS NAO HOUVE UM LAYOFF MAS ALGUMAS DEMISSOES OCORRERAM COMO FORMA DE REESTRUTURACAO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-0.05027971  0.01188959 -0.04992315 ... -0.00043642  0.01415232
- -0.02136035]</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
+          <t>NO PERIODO DA PANDEMIAS HOUVE UM GRANDE INVESTIMENTO EM CONTRATACAO E EVOLUCOES DE CARGOS MAS DE LA PRA CA, POUCO SE VE PROMOCOES E GRATIFICACOES.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[-0.05411676  0.01653671 -0.04701357 ...  0.02134566 -0.04930737
+ -0.01525337]</t>
+        </is>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>-16.31130409240723</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>-8.940984725952148</v>
+        <v>-8.574091911315918</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.733378648757935</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>SOFTWARE ENGINEER II</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROS: O BANCO OFERECE BONS BENEFICIOS, COMO VALE-REFEICAO E ALIMENTACAO, PLANO DE SAUDE E SEGURO DE VIDA. O LOCAL OFERECE BOAS FERRAMENTAS DE TRABALHO. | CONTRAS: SALARIO BAIXO. FALTA DE UM PLANO DE CARREIRA. EMPRESA NAO OFERECE OPORTUNIDADE DE CRESCIMENTO COM GANHO SALARIAL. UM UNICO FUNCIONARIO DESEMPENHANDO VARIAS FUNCOES. LIDERANCA PERDIDA.</t>
+          <t>PROS: BOA COMPENSACAO. BOM VALE-ALIMENTACAO. BOM ESCRITORIO. | CONTRAS: MA GESTAO. HA NEPOTISMO PARA OS CARGOS DE LIDERANCA E FALTA MERITOCRACIA.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5 de set. de 2018</t>
+          <t>11 de mai. de 2024</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PROS: O BANCO OFERECE BONS BENEFICIOS, COMO VALE-REFEICAO E ALIMENTACAO, PLANO DE SAUDE E SEGURO DE VIDA. O LOCAL OFERECE BOAS FERRAMENTAS DE TRABALHO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SALARIO BAIXO. FALTA DE UM PLANO DE CARREIRA. EMPRESA NAO OFERECE OPORTUNIDADE DE CRESCIMENTO COM GANHO SALARIAL. UM UNICO FUNCIONARIO DESEMPENHANDO VARIAS FUNCOES. LIDERANCA PERDIDA.</t>
+          <t>PROS: BOA COMPENSACAO. BOM VALE-ALIMENTACAO. BOM ESCRITORIO.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-0.06654562  0.02988781 -0.08510686 ...  0.02784267 -0.0148908
-  0.01352937]</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
+          <t>MA GESTAO. HA NEPOTISMO PARA OS CARGOS DE LIDERANCA E FALTA MERITOCRACIA.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[-0.02691155 -0.01098424 -0.03841442 ... -0.00901489 -0.02812052
+ -0.0308865 ]</t>
+        </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>-17.83297538757324</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>-8.644353866577148</v>
+        <v>-13.91489791870117</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-3.404321670532227</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>BANKER</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROS: TICKET ALIMENTACAO E REFEICAO. EQUIPE MUITO GENTE BOA. | CONTRAS: FALTA DE DIALOGO NO BANCO NAO TEM PLANO DE CARREIRA. PLANO DE SAUDE CARO (CO-PARTICIPATIVO). TEM QUE SER PUXA SACO PARA CONSEGUIR ALGO.</t>
+          <t>PROS: EMPRESA COM SISTEMAS BONS E CLIMA DESCONTRAIDO. | CONTRAS: RENDA VARIAVEL SEM REGRAS CLARAS E METAS COMERCIAL MUITO DESPROPORCIONAL AO AUC DA CARTEIRA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>24 de jul. de 2019</t>
+          <t>24 de abr. de 2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PROS: TICKET ALIMENTACAO E REFEICAO. EQUIPE MUITO GENTE BOA.</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FALTA DE DIALOGO NO BANCO NAO TEM PLANO DE CARREIRA. PLANO DE SAUDE CARO (CO-PARTICIPATIVO). TEM QUE SER PUXA SACO PARA CONSEGUIR ALGO.</t>
+          <t>PROS: EMPRESA COM SISTEMAS BONS E CLIMA DESCONTRAIDO.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[ 0.01283749 -0.01448384 -0.03492486 ... -0.00325893  0.00271879
- -0.00963813]</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>2</v>
+          <t>RENDA VARIAVEL SEM REGRAS CLARAS E METAS COMERCIAL MUITO DESPROPORCIONAL AO AUC DA CARTEIRA.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[-0.0418696   0.00395509 -0.05715335 ... -0.03454233 -0.02248872
+  0.04435016]</t>
+        </is>
       </c>
       <c r="H50" t="n">
         <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>14.11881446838379</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>-19.45428085327148</v>
+        <v>-10.82741641998291</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-16.14655876159668</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>GERENTE EXECUTIVO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROS: CLIMA DE TRABALHO EM ALGUNS SETORES. | CONTRAS: NAO POSSUI PLANO DE CARREIRA E MUITOS SAO BENEFICIADOS POR CLASSE SOCIAL OU AMIZADES. A MAIORIA DOS SETORES NAO INVESTEM NA CARREIRA DE CONHECIMENTO DOS FUNCIONARIOS.</t>
+          <t>PROS: LIBERDADE PARA CRIAR, ABERTURA DA GESTAO, CLIMA LEVE E DESCONTRAIDO. | CONTRAS: AUSENCIA DE FOCO, INICIATIVAS CONFLITANTES E POUCA ORGANIZACAO.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>28 de set. de 2021</t>
+          <t>24 de abr. de 2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PROS: CLIMA DE TRABALHO EM ALGUNS SETORES.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NAO POSSUI PLANO DE CARREIRA E MUITOS SAO BENEFICIADOS POR CLASSE SOCIAL OU AMIZADES. A MAIORIA DOS SETORES NAO INVESTEM NA CARREIRA DE CONHECIMENTO DOS FUNCIONARIOS.</t>
+          <t>PROS: LIBERDADE PARA CRIAR, ABERTURA DA GESTAO, CLIMA LEVE E DESCONTRAIDO.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-0.06011446  0.00083278 -0.03642856 ...  0.00372095  0.00678295
-  0.00721334]</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
+          <t>AUSENCIA DE FOCO, INICIATIVAS CONFLITANTES E POUCA ORGANIZACAO.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[-0.01006371 -0.02043644 -0.04315543 ...  0.01528343 -0.00525485
+ -0.01629904]</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.548571765422821</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>-13.2494535446167</v>
+        <v>-19.07440757751465</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.956917941570282</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>SALES ADVISOR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROS: CLIMA BOM DE TRABALHO, PESSOAS EXTROVERTIDAS E AMIGAS. BOA ESTRUTURA E INVESTIMENTOS. EMPRESA CRESCIMENTO EXPONENCIAL, ABRINDO GRANDES MERCADOS. | CONTRAS: PLANO DE CARREIRA NAO E BOM, NAO SENDO MUITAS VEZES MOTIVADOR AOS FUNCIONARIOS. EMPRESA EM CRESCIMENTO, NECESSITANDO DE FOCO NA AREA DE CARREIRA.</t>
+          <t>PROS: OTIMO EMPRESA, COM OTIMAS PESSOAS. EXCELENTE OPORTUNIDADES. | CONTRAS: SISTEMAS E TECNOLOGIA RUINS. BAIXA CONFIABILIDADE NOS DADOS, PROBLEMAS CONSTANTES NAS PLATAFORMAS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13 de nov. de 2018</t>
+          <t>18 de abr. de 2024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PROS: CLIMA BOM DE TRABALHO, PESSOAS EXTROVERTIDAS E AMIGAS. BOA ESTRUTURA E INVESTIMENTOS. EMPRESA CRESCIMENTO EXPONENCIAL, ABRINDO GRANDES MERCADOS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PLANO DE CARREIRA NAO E BOM, NAO SENDO MUITAS VEZES MOTIVADOR AOS FUNCIONARIOS. EMPRESA EM CRESCIMENTO, NECESSITANDO DE FOCO NA AREA DE CARREIRA.</t>
+          <t>PROS: OTIMO EMPRESA, COM OTIMAS PESSOAS. EXCELENTE OPORTUNIDADES.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-0.03926229  0.00171276 -0.04768047 ...  0.02287152  0.02462114
- -0.01147456]</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>2</v>
+          <t>SISTEMAS E TECNOLOGIA RUINS. BAIXA CONFIABILIDADE NOS DADOS, PROBLEMAS CONSTANTES NAS PLATAFORMAS</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[-0.04277587  0.01000239 -0.04019283 ... -0.00785017 -0.00070255
+ -0.00592283]</t>
+        </is>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>-17.85033988952637</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>-12.3394193649292</v>
+        <v>-25.01824569702148</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.191470623016357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>ANALISTA DE DIGITAL ANALYTICS SENIOR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE EXCEPCIONAL QUE PROPOE MUITO APRENDIZADO, OTIMA EMPRESA COM GRANDE POTENCIAL E MUITOS DESAFIOS. | CONTRAS: NAO TEM PLANO DE CARREIRA E OS SALARIOS SAO INFERIORES A MEDIA DE MERCADO.</t>
+          <t>PROS: PODER DAR IDEIAS PARA MELHORIAS PARA SEUS LIDERES. | CONTRAS: FALTA DE PROCESSO EM TODAS AS AREAS.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>30 de out. de 2019</t>
+          <t>19 de mar. de 2024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE EXCEPCIONAL QUE PROPOE MUITO APRENDIZADO, OTIMA EMPRESA COM GRANDE POTENCIAL E MUITOS DESAFIOS.</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA E OS SALARIOS SAO INFERIORES A MEDIA DE MERCADO.</t>
+          <t>PROS: PODER DAR IDEIAS PARA MELHORIAS PARA SEUS LIDERES.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.05248367  0.02170921 -0.05402691 ...  0.01269825 -0.00765501
- -0.02222394]</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>2</v>
+          <t>FALTA DE PROCESSO EM TODAS AS AREAS.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[-0.00309454  0.01285505 -0.0569187  ... -0.02674653 -0.02187298
+  0.03682446]</t>
+        </is>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>5.907354831695557</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>-14.10289669036865</v>
+        <v>-17.65291404724121</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-2.559262752532959</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>SUPERVISOR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL E EMPRESA QUE APOIA A DIVERSIDADE. | CONTRAS: NAO HA PLANO DE CARREIRA E VOCE PODE FICAR ESTAGNADO SE NAO TEM INDICACOES DE ALGUEM IMPORTANTE.</t>
+          <t>PROS: EMPRESA QUE TEM COMO CERNE A INOVACAO.ESTAO CONSTANTEMENTE LANCANDO NOVOS PRODUTOS E TECNOLOGIAS. TAMBEM TEM OTIMOS BENEFICIOS. | CONTRAS: FALTA DE TRANSPARENCIA E FEEDBACK COM OS FUNCIONARIOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>30 de jun. de 2022</t>
+          <t>26 de fev. de 2024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE AGRADAVEL E EMPRESA QUE APOIA A DIVERSIDADE.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NAO HA PLANO DE CARREIRA E VOCE PODE FICAR ESTAGNADO SE NAO TEM INDICACOES DE ALGUEM IMPORTANTE.</t>
+          <t>PROS: EMPRESA QUE TEM COMO CERNE A INOVACAO.ESTAO CONSTANTEMENTE LANCANDO NOVOS PRODUTOS E TECNOLOGIAS. TAMBEM TEM OTIMOS BENEFICIOS.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-0.00859695  0.02398951 -0.01760398 ... -0.01638462  0.0052849
- -0.02176169]</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>2</v>
+          <t>FALTA DE TRANSPARENCIA E FEEDBACK COM OS FUNCIONARIOS</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[-0.02426969 -0.02600204 -0.05197801 ... -0.00223431 -0.0074524
+ -0.00229404]</t>
+        </is>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.594577789306641</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>-23.53335571289062</v>
+        <v>-16.69047355651855</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.551212310791016</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS</t>
+          <t>DESENVOLVEDOR JUNIOR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, CLIMA, BENEFICIOS E PESSOAS | CONTRAS: PLANO DE CARREIRA POUCO ESTRUTURADO E EMPRESA COM POUCA CULTURA DE PRODUTO, AREA DE UX SOBRECARREGADA.</t>
+          <t>PROS: BOM SALARIO, VA/VR E CONVENIO MEDICO. | CONTRAS: DEMISSOES E CONTRATACOES SEM SENTIDO, NAO TEM FEEDBACK, GESTAO DESORGANIZADA E NAO SABEM PRIORIZAR DEMANDAS.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>7 de jul. de 2022</t>
+          <t>27 de mar. de 2024</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE, CLIMA, BENEFICIOS E PESSOAS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PLANO DE CARREIRA POUCO ESTRUTURADO E EMPRESA COM POUCA CULTURA DE PRODUTO, AREA DE UX SOBRECARREGADA.</t>
+          <t>PROS: BOM SALARIO, VA/VR E CONVENIO MEDICO.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[-0.06801471  0.0003622  -0.02750239 ...  0.00896585  0.00528656
-  0.00062615]</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
+          <t>DEMISSOES E CONTRATACOES SEM SENTIDO, NAO TEM FEEDBACK, GESTAO DESORGANIZADA E NAO SABEM PRIORIZAR DEMANDAS.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[-0.04029351 -0.00118155 -0.0328031  ...  0.00759112 -0.03587807
+ -0.02806817]</t>
+        </is>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>3.88299036026001</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>-21.34724426269531</v>
+        <v>-9.790611267089844</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-2.828666925430298</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ESTAGIARIO</t>
+          <t>ENGENHEIRO PLENO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROS: HORARIO FLEXIVEL, AMBIENTE AMIGAVEL E ACOLHEDOR. | CONTRAS: SEM PLANO DE CARREIRA BEM DEFINIDO, POUCA EXPECTATIVA DE CRESCIMENTO.</t>
+          <t>PROS: MUITA LIBERDADE COM AS DEMANDAS E STACK BOA | CONTRAS: MUITA BUROCRACIA CARACTERISTICA DE BANCO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>18 de jul. de 2019</t>
+          <t>8 de abr. de 2024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PROS: HORARIO FLEXIVEL, AMBIENTE AMIGAVEL E ACOLHEDOR.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SEM PLANO DE CARREIRA BEM DEFINIDO, POUCA EXPECTATIVA DE CRESCIMENTO.</t>
+          <t>PROS: MUITA LIBERDADE COM AS DEMANDAS E STACK BOA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-0.06487819  0.01712109 -0.04473598 ...  0.01030571  0.00681893
- -0.00243461]</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>2</v>
+          <t>MUITA BUROCRACIA CARACTERISTICA DE BANCO</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[ 0.00096861 -0.02342835 -0.05182436 ... -0.00013196 -0.04227459
+  0.00409835]</t>
+        </is>
       </c>
       <c r="H56" t="n">
         <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>4.902334690093994</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>-17.37576103210449</v>
+        <v>1.939772486686707</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15.28262901306152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR</t>
+          <t>ANALISTA PLENO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, APRENDIZADO COM NOVAS TECNOLOGIAS. | CONTRAS: PLANO DE CARREIRA BEM OBSCURO, ALGUNS FUNCIONARIOS NAO ACEITAM OPINIOES DIVERGENTES.</t>
+          <t>PROS: AMBIENTE BOM E COLEGAS DE TRABALHO BEM DISPOSTOS | CONTRAS: POUCA FLEXIBILIDADE NAS DEFINICOES DOS PROJETOS. GESTORES BENEFICIAM AMIGOS.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2 de abr. de 2020</t>
+          <t>20 de mar. de 2024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PROS: SALARIO, BENEFICIOS, APRENDIZADO COM NOVAS TECNOLOGIAS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PLANO DE CARREIRA BEM OBSCURO, ALGUNS FUNCIONARIOS NAO ACEITAM OPINIOES DIVERGENTES.</t>
+          <t>PROS: AMBIENTE BOM E COLEGAS DE TRABALHO BEM DISPOSTOS</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-0.02539972 -0.01074835 -0.05071803 ...  0.0075168   0.02723501
- -0.00352405]</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>2</v>
+          <t>POUCA FLEXIBILIDADE NAS DEFINICOES DOS PROJETOS. GESTORES BENEFICIAM AMIGOS.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[-0.04464488 -0.00827084 -0.0349513  ...  0.00948158 -0.01688794
+ -0.02399295]</t>
+        </is>
       </c>
       <c r="H57" t="n">
         <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.129313468933105</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>-17.83815574645996</v>
+        <v>-27.79024314880371</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9916568994522095</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ASSISTENTE</t>
+          <t>DEV I</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROS: SALARIO RAZOAVEL E BONS BENEFICIOS. | CONTRAS: EMPRESA NAO SE COMUNICA COM OS EMPREGADOS, MUITOS GESTORES NAO ESTAO PRESENTES E NAO HA PLANO DE CARREIRA DEFINIDO.</t>
+          <t>PROS: SALARIO BACANA, E BONS BENEFICIOS | CONTRAS: MUITA BUROCRACIA, E MUITOS PROBLEMAS COMUNS DE EMPRESAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1 de jun. de 2022</t>
+          <t>30 de mar. de 2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PROS: SALARIO RAZOAVEL E BONS BENEFICIOS.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EMPRESA NAO SE COMUNICA COM OS EMPREGADOS, MUITOS GESTORES NAO ESTAO PRESENTES E NAO HA PLANO DE CARREIRA DEFINIDO.</t>
+          <t>PROS: SALARIO BACANA, E BONS BENEFICIOS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-0.03615118  0.0020826  -0.03319356 ...  0.02357306  0.00024232
- -0.02473455]</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>2</v>
+          <t>MUITA BUROCRACIA, E MUITOS PROBLEMAS COMUNS DE EMPRESAS</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[-0.01843249 -0.00774069 -0.03270824 ...  0.00702059 -0.0303473
+  0.03437627]</t>
+        </is>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>-17.23270606994629</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>-1.558377981185913</v>
+        <v>-25.10632133483887</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-2.420008897781372</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ANALISTA DE MARKETING</t>
+          <t>ANALYST</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROS: DESAFIOS PROFISSIONAIS, BENEFICIOS SAO MUITO BONS E COMPETITIVOS COM O MERCADO. | CONTRAS: FALTA UM PLANO DE CARREIRA PARA OS FUNCIONARIOS.</t>
+          <t>PROS: OTIMOS COMPANHEIROS DE EQUIPE, VA/VR, HIBRIDO | CONTRAS: EQUIPE DE GESTAO BASTANTE TECNICA E MUITO POUCO HUMANA. FALTA HABILIDADE DOS GERENTES E UM PESSIMO RH.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1 de jun. de 2021</t>
+          <t>8 de fev. de 2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PROS: DESAFIOS PROFISSIONAIS, BENEFICIOS SAO MUITO BONS E COMPETITIVOS COM O MERCADO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FALTA UM PLANO DE CARREIRA PARA OS FUNCIONARIOS.</t>
+          <t>PROS: OTIMOS COMPANHEIROS DE EQUIPE, VA/VR, HIBRIDO</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-0.04082815 -0.00704653 -0.06811265 ...  0.00734417 -0.00109487
-  0.00344607]</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
+          <t>EQUIPE DE GESTAO BASTANTE TECNICA E MUITO POUCO HUMANA. FALTA HABILIDADE DOS GERENTES E UM PESSIMO RH.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[-0.05063572  0.02493739 -0.03644363 ...  0.02640766 -0.03991198
+ -0.03254307]</t>
+        </is>
       </c>
       <c r="H59" t="n">
         <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>3.159612894058228</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>-16.93774032592773</v>
+        <v>-14.44298076629639</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-4.90876579284668</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROJETOS</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROS: UMA BOA EMPRESA DE SE TRABALHAR, SALARIO E BENEFICIOS BONS, TIMES INTEGRADOS | CONTRAS: FALTA UMA GESTAO DE CARREIRA QUE SEJA MAIS BEM FEITA</t>
+          <t>PROS: STACK MODERNA, TIME COLABORATIVO , JORNADA FLEXIVEL | CONTRAS: ACESSOS BUROCRATICOS, DEMORA NAS CONTRATACOES, E DIFICULDADES DE COMUNICACAO COM OUTROS TIMES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4 de ago. de 2021</t>
+          <t>6 de mar. de 2024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PROS: UMA BOA EMPRESA DE SE TRABALHAR, SALARIO E BENEFICIOS BONS, TIMES INTEGRADOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FALTA UMA GESTAO DE CARREIRA QUE SEJA MAIS BEM FEITA</t>
+          <t>PROS: STACK MODERNA, TIME COLABORATIVO , JORNADA FLEXIVEL</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[-0.0248886  -0.01604302 -0.0618934  ... -0.0138377  -0.00843498
- -0.00335922]</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>2</v>
+          <t>ACESSOS BUROCRATICOS, DEMORA NAS CONTRATACOES, E DIFICULDADES DE COMUNICACAO COM OUTROS TIMES</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[-0.00685082  0.00751245 -0.00449108 ... -0.01094917 -0.04305278
+ -0.03077837]</t>
+        </is>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>3.243341684341431</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>-19.8897533416748</v>
+        <v>-22.07009696960449</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.015929698944092</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE DADOS JUNIOR</t>
+          <t>ANALISTA DE REDES SENIOR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS (DESTAQUE PRO VALE)
-OTIMA EQUIPE E LIDERANCA
-AMBIENTE DE TRABALHO COLABORATIVO | CONTRAS: PLANO DE SAUDE AMIL COOPARTICIPATIVO
-PLANO DE CARREIRA POUCO DEFINIDO</t>
+          <t>PROS: AMBIENTE DESCONTRAIDO, OTIMOS PROFISSIONAIS E EXCELENTE BENEFICIOS | CONTRAS: GESTAO ENGESSADA QUE NAO MOTIVA AOS ESTUDOS QUE VOCE ESTA FAZENDO PARA SER MELHOR NAQUILO QUE ATUA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>24 de abr. de 2021</t>
+          <t>30 de jan. de 2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS (DESTAQUE PRO VALE)
-OTIMA EQUIPE E LIDERANCA
-AMBIENTE DE TRABALHO COLABORATIVO</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PLANO DE SAUDE AMIL COOPARTICIPATIVO
-PLANO DE CARREIRA POUCO DEFINIDO</t>
+          <t>PROS: AMBIENTE DESCONTRAIDO, OTIMOS PROFISSIONAIS E EXCELENTE BENEFICIOS</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-0.01944664  0.00763648 -0.00569868 ...  0.00199894  0.00778278
- -0.02973724]</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>2</v>
+          <t>GESTAO ENGESSADA QUE NAO MOTIVA AOS ESTUDOS QUE VOCE ESTA FAZENDO PARA SER MELHOR NAQUILO QUE ATUA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[-0.01723148  0.00780852 -0.05086907 ... -0.02968653 -0.01291631
+ -0.01046729]</t>
+        </is>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>13.31731986999512</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>-22.36286926269531</v>
+        <v>-11.65645885467529</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-4.559056758880615</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>INSTRUTOR DE TREINAMENTO</t>
+          <t>ESPECIALISTA ANDROID DEVELOPER</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, AREA COMUM, PREDIO E LOCALIZACAO. | CONTRAS: PROJECAO DE CARREIRA, HIERARQUIA, SO SOBE QUEM ESTA EM CIMA E NAO DA OPORTUNIDADEPROS DEMAIS</t>
+          <t>PROS: PRODUTOS DESAFIADORES E EXCELENTE LUGAR PARA SE TRABALHAR | CONTRAS: LEVA MUITA TEMPO PARA AUMENTO DE SALARIO E PROMOCAO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5 de ago. de 2020</t>
+          <t>26 de fev. de 2024</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, AREA COMUM, PREDIO E LOCALIZACAO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PROJECAO DE CARREIRA, HIERARQUIA, SO SOBE QUEM ESTA EM CIMA E NAO DA OPORTUNIDADEPROS DEMAIS</t>
+          <t>PROS: PRODUTOS DESAFIADORES E EXCELENTE LUGAR PARA SE TRABALHAR</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-0.04229895 -0.02168337 -0.04004574 ...  0.02763389  0.02430815
- -0.02153151]</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>2</v>
+          <t>LEVA MUITA TEMPO PARA AUMENTO DE SALARIO E PROMOCAO</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[-0.01744761 -0.00306488 -0.03407588 ... -0.02805046 -0.01721339
+  0.00594669]</t>
+        </is>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.3045206665992737</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>-15.28031444549561</v>
+        <v>-8.857771873474121</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.135644674301147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>DEV</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROS: SALARIO E BOM, VALE E OTIMO! | CONTRAS: NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
+          <t>PROS: TECNOLOGIAS MODERNAS, MUITOS BONS PROJETOS. | CONTRAS: PLANO DE CARGOS, MERITO, PROMOCOES, COM CRITERIOS MUITO ABSTRATOS.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>12 de mai. de 2022</t>
+          <t>26 de fev. de 2024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PROS: SALARIO E BOM, VALE E OTIMO!</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA BEM DEFINIDO</t>
+          <t>PROS: TECNOLOGIAS MODERNAS, MUITOS BONS PROJETOS.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-0.02643432 -0.00140762 -0.03378791 ... -0.0161368   0.02001998
- -0.01518095]</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>2</v>
+          <t>PLANO DE CARGOS, MERITO, PROMOCOES, COM CRITERIOS MUITO ABSTRATOS.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[-0.0624015  -0.00937163 -0.03304243 ... -0.01713853  0.01295572
+ -0.030112  ]</t>
+        </is>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>8.454087257385254</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>-18.15287017822266</v>
+        <v>-5.227579593658447</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-6.903172969818115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>ANALISTA DE SOLUCOES PLENO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROS: CULTURA E AMBIENTE DE TRABALHO | CONTRAS: PLANO DE CARREIRA NAO E BEM DEFINIDO</t>
+          <t>PROS: AMBIENTE DESAFIADOR.
+.
+.
+.
+.
+. | CONTRAS: FALTA DE OPORTUNIDADE.
+.
+.
+.
+.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4 de fev. de 2021</t>
+          <t>4 de mar. de 2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PROS: CULTURA E AMBIENTE DE TRABALHO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PLANO DE CARREIRA NAO E BEM DEFINIDO</t>
+          <t>PROS: AMBIENTE DESAFIADOR.
+.
+.
+.
+.
+.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[-0.0031321  -0.01309452 -0.04274421 ... -0.01099188  0.02996299
-  0.00457295]</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>2</v>
+          <t>FALTA DE OPORTUNIDADE.
+.
+.
+.
+.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[-0.01198026  0.01457569 -0.03712837 ... -0.01516581 -0.02727053
+ -0.01790779]</t>
+        </is>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>9.351664543151855</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>-20.78452491760254</v>
+        <v>-14.35091686248779</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.4649096727371216</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRODUCT DESIGNER</t>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DESAFIADORA, COM NOVOS PRODUTOS E MELHORIAS SENDO LANCADOS A TODO INSTANTE. | CONTRAS: FALTA UM PLANO DE CARREIRA MAIS DEFINIDO</t>
+          <t>PROS: EMPRESA COM BONS BENEFICIOS E EQUIPAMENTOS | CONTRAS: PESSOAL MUITO INTROVERTIDO, ACABAVA SENDO DIFICIL INTERAGIR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2 de mar. de 2021</t>
+          <t>13 de fev. de 2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PROS: EMPRESA DESAFIADORA, COM NOVOS PRODUTOS E MELHORIAS SENDO LANCADOS A TODO INSTANTE.</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FALTA UM PLANO DE CARREIRA MAIS DEFINIDO</t>
+          <t>PROS: EMPRESA COM BONS BENEFICIOS E EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-0.02591443 -0.00865872 -0.0538737  ... -0.00889331  0.0232515
-  0.01015245]</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>2</v>
+          <t>PESSOAL MUITO INTROVERTIDO, ACABAVA SENDO DIFICIL INTERAGIR</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[ 0.04224322  0.00854525 -0.03561992 ... -0.0164904  -0.02290483
+  0.03393772]</t>
+        </is>
       </c>
       <c r="H65" t="n">
         <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>3.989730596542358</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>-19.54340553283691</v>
+        <v>-19.45659828186035</v>
+      </c>
+      <c r="K65" t="n">
+        <v>11.58877849578857</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ADVOGADO</t>
+          <t>TECH MANAGER</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROS: SALARIO E BENEFICIOS BONS, AMBIENTE AGRADAVEL. | CONTRAS: DIFICULDADE DE CRESCIMENTO, AUSENCIA DE PLANO DE CARREIRA.</t>
+          <t>PROS: TECNOLOGIA DE PONTA; AUTONOMIA; BONS SALARIOS; CRESCIMENTO ACELERADO. | CONTRAS: DESORGANIZACAO; NAO CUIDAM DAS PESSOAS; MUITO EGO; AMBIENTE ESTRESSANTE COM O TEMPO.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>19 de jan. de 2022</t>
+          <t>9 de jan. de 2024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PROS: SALARIO E BENEFICIOS BONS, AMBIENTE AGRADAVEL.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DIFICULDADE DE CRESCIMENTO, AUSENCIA DE PLANO DE CARREIRA.</t>
+          <t>PROS: TECNOLOGIA DE PONTA; AUTONOMIA; BONS SALARIOS; CRESCIMENTO ACELERADO.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-0.04178683  0.01237286 -0.03022834 ...  0.00898535  0.00500063
-  0.00941781]</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>2</v>
+          <t>DESORGANIZACAO; NAO CUIDAM DAS PESSOAS; MUITO EGO; AMBIENTE ESTRESSANTE COM O TEMPO.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[ 0.00149415  0.01856684 -0.05151379 ... -0.00630907 -0.02456936
+ -0.06082511]</t>
+        </is>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>4.703630447387695</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>-17.91140365600586</v>
+        <v>-11.70423030853271</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-1.618673801422119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ARQUIETO DE SOLUCOES</t>
+          <t>ANALISTA SENIOR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PESSOAS, GESTAO. | CONTRAS: FALTA DE UM PLANO DE CARREIRA DEFINIDO.</t>
+          <t>PROS: BOAS OPORTUNIDADES DE CRESCIMENTO E AMBIENTE DE TRABALHO AGRADAVEL | CONTRAS: MUITA LENTIDAO COM NOVOS PROCESSOS, COISAS SIMPLES DEMORAM DEMAIS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>28 de set. de 2020</t>
+          <t>31 de jan. de 2024</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PROS: BENEFICIOS, SALARIO, AMBIENTE, PESSOAS, GESTAO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FALTA DE UM PLANO DE CARREIRA DEFINIDO.</t>
+          <t>PROS: BOAS OPORTUNIDADES DE CRESCIMENTO E AMBIENTE DE TRABALHO AGRADAVEL</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[-0.04029203 -0.00563032 -0.05222593 ... -0.00668576  0.00362227
-  0.00325594]</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
+          <t>MUITA LENTIDAO COM NOVOS PROCESSOS, COISAS SIMPLES DEMORAM DEMAIS</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[-0.03400454  0.01708923 -0.04627823 ... -0.03598728 -0.05349126
+  0.00339451]</t>
+        </is>
       </c>
       <c r="H67" t="n">
         <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>4.967483997344971</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>-18.83721160888672</v>
+        <v>-24.94429779052734</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.2033109366893768</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IOS SOFTWARE DEVELOPER</t>
+          <t>ADVOGADO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROS: ADOTANDO TRABALHO REMOTO.
-BONS SALARIOS | CONTRAS: HIERARQUIA MUITO BASEADA EM CONHECIMENTO DOS SUPERIORES E INDICACOES. FALTA PLANO DE CARREIRA</t>
+          <t>PROS: BOA ESTRUTURA PARA SE TRABALHAR. | CONTRAS: FALTA TRANSPARENCIA NA TOMADA DE DECISOES.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15 de dez. de 2020</t>
+          <t>20 de dez. de 2023</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PROS: ADOTANDO TRABALHO REMOTO.
-BONS SALARIOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>HIERARQUIA MUITO BASEADA EM CONHECIMENTO DOS SUPERIORES E INDICACOES. FALTA PLANO DE CARREIRA</t>
+          <t>PROS: BOA ESTRUTURA PARA SE TRABALHAR.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-0.03327136 -0.01975891 -0.05542463 ...  0.01397286  0.0085585
-  0.03754884]</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>2</v>
+          <t>FALTA TRANSPARENCIA NA TOMADA DE DECISOES.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[-0.00805057 -0.02393286 -0.05845528 ... -0.01913419 -0.01413768
+ -0.00941029]</t>
+        </is>
       </c>
       <c r="H68" t="n">
         <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1333901137113571</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>-15.4203462600708</v>
+        <v>-18.25625610351562</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.61754846572876</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE DADOS</t>
+          <t>ANALISTA DE DADOS PLENO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE E PROPICIO PARA DESAFIOS | CONTRAS: NAO POSSUI PLANO DE CARREIRA E FALTA TRANSPARENCIA NESSE QUESITO</t>
+          <t>PROS: AMBIENTE DINAMICO,MUITA OPORTUNIDADE PARA APRENDIZADO E DESENVOLVIMENTO | CONTRAS: MUITA DESORGANIZACAO E IMATURIDADE DA CHEFIA E EXECUTIVOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>25 de fev. de 2022</t>
+          <t>1 de dez. de 2023</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE LEVE E PROPICIO PARA DESAFIOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NAO POSSUI PLANO DE CARREIRA E FALTA TRANSPARENCIA NESSE QUESITO</t>
+          <t>PROS: AMBIENTE DINAMICO,MUITA OPORTUNIDADE PARA APRENDIZADO E DESENVOLVIMENTO</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-0.03792568 -0.01996789 -0.02316936 ... -0.01347949  0.02394857
- -0.03029442]</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>2</v>
+          <t>MUITA DESORGANIZACAO E IMATURIDADE DA CHEFIA E EXECUTIVOS</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[ 0.01018625  0.00484435 -0.01241645 ...  0.00296219 -0.03125836
+  0.00901587]</t>
+        </is>
       </c>
       <c r="H69" t="n">
         <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>9.992311477661133</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>-17.79335975646973</v>
+        <v>-16.28187370300293</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-5.322957515716553</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ANALISTA JUNIOR</t>
+          <t>PRODUCT DESIGNER</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROS: DRESS CODE FLEXIVEL, AMBIENTE DINAMICO, GYMPASS | CONTRAS: PERSPECTIVA DE CARREIRA, PLANO DE CARREIRA E SALARIOS E BENEFICIOS</t>
+          <t>PROS: SALARIO E BENEFICIOS (QUE E POSITIVO POR CONTA DO SINDICATO) | CONTRAS: ALTA LIDERANCA FRACA E QUE OCUPAM CARGO POR PROXIMIDADE COM CEO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16 de fev. de 2020</t>
+          <t>11 de jan. de 2024</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PROS: DRESS CODE FLEXIVEL, AMBIENTE DINAMICO, GYMPASS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PERSPECTIVA DE CARREIRA, PLANO DE CARREIRA E SALARIOS E BENEFICIOS</t>
+          <t>PROS: SALARIO E BENEFICIOS (QUE E POSITIVO POR CONTA DO SINDICATO)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-0.03132726 -0.00111906 -0.04836851 ...  0.01846857  0.01536842
- -0.02301698]</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>2</v>
+          <t>ALTA LIDERANCA FRACA E QUE OCUPAM CARGO POR PROXIMIDADE COM CEO</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[-0.02912403  0.00572615 -0.05212553 ...  0.01591566 -0.03902505
+  0.000537  ]</t>
+        </is>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>8.566914558410645</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>-26.54272270202637</v>
+        <v>-2.056362628936768</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-6.945709705352783</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL</t>
+          <t>ANALISTA DE DADOS SENIOR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO DA EMPRESA, INOVACAO, TECNOLOGIA, CULTURA JOVEM. | CONTRAS: FALTA PLANO DE CARREIRA, LIDERANCAS, RECONHECIMENTO E RETENCAO.</t>
+          <t>PROS: BO REMUNERACAO BOA VISIBILIDADE E APRENDIZDO | CONTRAS: FALTA TRANSPARENCIA NAS COMUNICACOES INTERNAS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15 de jan. de 2021</t>
+          <t>23 de nov. de 2023</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO DA EMPRESA, INOVACAO, TECNOLOGIA, CULTURA JOVEM.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FALTA PLANO DE CARREIRA, LIDERANCAS, RECONHECIMENTO E RETENCAO.</t>
+          <t>PROS: BO REMUNERACAO BOA VISIBILIDADE E APRENDIZDO</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-0.01101018  0.00709543 -0.04151096 ...  0.01422594  0.00637374
-  0.00921006]</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>2</v>
+          <t>FALTA TRANSPARENCIA NAS COMUNICACOES INTERNAS</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[-0.02025734  0.0070951  -0.037537   ... -0.02001936 -0.0004854
+ -0.01105806]</t>
+        </is>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>3.622802495956421</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>-18.20034980773926</v>
+        <v>-19.17829513549805</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5.169893741607666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>ANALISTA JUNIOR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROS: O CLIMA DENTRO DO MEU SETOR E BOM. | CONTRAS: FALTA MUITO UM PLANO DE CARREIRA E TRANSPARENCIA.</t>
+          <t>PROS: OTIMOS BENEFICIOS E BOA LOCALIZACAO. OPORTUNIDADE DE ADQUIRIR CONHECIMENTO TECNICO DE MATRIZ DE BANCO EM BELO HORIZONTE. | CONTRAS: PROCESSOS CONFUSOS, GESTAO RUIM E POUCO DIALOGO.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14 de ago. de 2022</t>
+          <t>18 de set. de 2023</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PROS: O CLIMA DENTRO DO MEU SETOR E BOM.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FALTA MUITO UM PLANO DE CARREIRA E TRANSPARENCIA.</t>
+          <t>PROS: OTIMOS BENEFICIOS E BOA LOCALIZACAO. OPORTUNIDADE DE ADQUIRIR CONHECIMENTO TECNICO DE MATRIZ DE BANCO EM BELO HORIZONTE.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-0.02917209 -0.0032768  -0.05093015 ...  0.00046955 -0.00133114
-  0.00425768]</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>2</v>
+          <t>PROCESSOS CONFUSOS, GESTAO RUIM E POUCO DIALOGO.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[-0.0064824  -0.00979741 -0.046662   ... -0.01141716 -0.00054343
+ -0.01572426]</t>
+        </is>
       </c>
       <c r="H72" t="n">
         <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>3.562941074371338</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>-18.81218147277832</v>
+        <v>-20.29172515869141</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.2102048397064209</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>SUPERVISOR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO E POSSIBILIDADE DE APRENDIZADO. | CONTRAS: CARGA DE TRABALHO E PLANO DE CARREIRA INEXISTENTE.</t>
+          <t>PROS: POSSIBILIDADE DE CRESCIMENTO BOA REMUNERACAO BONS BENEFICIOS OTIMO ESCRITORIO | CONTRAS: FALTA DE FLEXIBILIDADE COM HOME OFFICE POUCA DIVERSIDADE RH CONFUSO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8 de ago. de 2019</t>
+          <t>18 de out. de 2023</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PROS: AMBIENTE DE TRABALHO E POSSIBILIDADE DE APRENDIZADO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CARGA DE TRABALHO E PLANO DE CARREIRA INEXISTENTE.</t>
+          <t>PROS: POSSIBILIDADE DE CRESCIMENTO BOA REMUNERACAO BONS BENEFICIOS OTIMO ESCRITORIO</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-0.0075632   0.00505008 -0.02745004 ...  0.00788016 -0.01513816
- -0.0040029 ]</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>2</v>
+          <t>FALTA DE FLEXIBILIDADE COM HOME OFFICE POUCA DIVERSIDADE RH CONFUSO</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[-0.04091525 -0.02718052 -0.03581557 ...  0.01777677 -0.05778475
+  0.01304929]</t>
+        </is>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>6.344686508178711</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>-21.51432991027832</v>
+        <v>-16.37569236755371</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.740365743637085</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ADVOGADO</t>
+          <t>ANALISTA DE CREDITO JUNIOR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS, FLEXIBILIDADE, AMBIENTE TRANQUILO. | CONTRAS: AUSENCIA DE PLANO DE CARREIRA.</t>
+          <t>PROS: BENEFICIOS COMO VALE ALIMENTACAO ACIMA DA MEDIA BOA ESTRUTURA | CONTRAS: PESSIMA GESTAO NAO LIGAM PARA OS FUNCIONARIOS GESTAO ATRASADA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>18 de jan. de 2021</t>
+          <t>25 de set. de 2023</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS, FLEXIBILIDADE, AMBIENTE TRANQUILO.</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AUSENCIA DE PLANO DE CARREIRA.</t>
+          <t>PROS: BENEFICIOS COMO VALE ALIMENTACAO ACIMA DA MEDIA BOA ESTRUTURA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-0.04663422  0.00523973 -0.03691845 ...  0.00887332 -0.00627508
-  0.01370328]</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>2</v>
+          <t>PESSIMA GESTAO NAO LIGAM PARA OS FUNCIONARIOS GESTAO ATRASADA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[-0.0013792   0.0120188  -0.06318771 ... -0.00899168 -0.0467217
+ -0.00921193]</t>
+        </is>
       </c>
       <c r="H74" t="n">
         <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>5.937322616577148</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>-19.22205543518066</v>
+        <v>-12.06112575531006</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-4.045010089874268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GERENTE COMERCIAL</t>
+          <t>ADVISOR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROS: CULTURA, INOVACAO, EQUILIBRIO E COBRANCA | CONTRAS: OUSADIA, PLANO DE CARREIRA, MERITOCRACIA E FLEXIBILIDADE</t>
+          <t>PROS: AMBIENTE MUITO AMISTOSO E COLABORATIVO. OPORTUNIDADE DE CRESCER | CONTRAS: AINDA FALTA ORGANIZAR MUITOS PROCESSOS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>30 de mar. de 2021</t>
+          <t>19 de out. de 2023</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PROS: CULTURA, INOVACAO, EQUILIBRIO E COBRANCA</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OUSADIA, PLANO DE CARREIRA, MERITOCRACIA E FLEXIBILIDADE</t>
+          <t>PROS: AMBIENTE MUITO AMISTOSO E COLABORATIVO. OPORTUNIDADE DE CRESCER</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-0.0608118  -0.02817927 -0.04544716 ...  0.01217614  0.01605603
-  0.01704783]</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>2</v>
+          <t>AINDA FALTA ORGANIZAR MUITOS PROCESSOS</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[ 0.00731148  0.00946993 -0.04101196 ... -0.02797998 -0.01662932
+  0.01732019]</t>
+        </is>
       </c>
       <c r="H75" t="n">
         <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>9.437883377075195</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>-26.80744171142578</v>
+        <v>-22.97203254699707</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.7534478306770325</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>COORDENADOR</t>
+          <t>SOFTWARE DEVELOPER I</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO ACELERADO MUITA OPORTUNIDADE E AUTONOMIA. | CONTRAS: FALTA PLANO DE CARREIRA MAIS DEFINIDO.</t>
+          <t>PROS: AMBIENTE COLABORATIVO, DINAMICO E AMIGAVEL. | CONTRAS: PRECISA MELHORAR A COMUNICACAO INTERNA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17 de fev. de 2022</t>
+          <t>17 de out. de 2023</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PROS: CRESCIMENTO ACELERADO MUITA OPORTUNIDADE E AUTONOMIA.</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FALTA PLANO DE CARREIRA MAIS DEFINIDO.</t>
+          <t>PROS: AMBIENTE COLABORATIVO, DINAMICO E AMIGAVEL.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-0.03537853 -0.0078688  -0.05438893 ... -0.00878816  0.01872785
- -0.00067184]</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>2</v>
+          <t>PRECISA MELHORAR A COMUNICACAO INTERNA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[-0.01150717  0.00732251 -0.05352267 ... -0.01500013 -0.01131408
+ -0.00321025]</t>
+        </is>
       </c>
       <c r="H76" t="n">
         <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>3.984353542327881</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>-19.48059463500977</v>
+        <v>-20.75263977050781</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4.876724243164062</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>GESTOR COMERCIAL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROS: OS BENEFICIOS INDEPENDENTE DOS CARGOS SAO BONS | CONTRAS: NAO HA DESENVOLVIMENTO DE PLANO DE CARREIRA.</t>
+          <t>PROS: DINAMICA, INCLUSIVA, ESTIMULA A COPARTICIPACAO... | CONTRAS: PRECISA ESTRUTURAR MELHOR AS AREAS E PROCESSOS.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>30 de mar. de 2022</t>
+          <t>6 de out. de 2023</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PROS: OS BENEFICIOS INDEPENDENTE DOS CARGOS SAO BONS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NAO HA DESENVOLVIMENTO DE PLANO DE CARREIRA.</t>
+          <t>PROS: DINAMICA, INCLUSIVA, ESTIMULA A COPARTICIPACAO...</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-0.03374776  0.01262066 -0.03664405 ... -0.00895095  0.01979653
-  0.01082912]</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>2</v>
+          <t>PRECISA ESTRUTURAR MELHOR AS AREAS E PROCESSOS.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[-0.0116698   0.01640811 -0.04198309 ... -0.0080503   0.01702747
+  0.00034646]</t>
+        </is>
       </c>
       <c r="H77" t="n">
         <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>7.220614910125732</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>-17.49977111816406</v>
+        <v>-22.37177085876465</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-1.676645398139954</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ANALISTA CLOUD</t>
+          <t>PRIVATE BANKER</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS, BOM AMBIENTE DE TRABALHO | CONTRAS: PLANO DE CARGO E SALARIO NAO E BEM DEFINIDO</t>
+          <t>PROS: LIBERDADE E FLEXIBILIDADE NO AMBIENTE DE TRABALHO | CONTRAS: SALARIO ABAIXO DO MERCADO E POUCA VALORIZACAO E MERITOCRACIA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16 de mar. de 2021</t>
+          <t>13 de set. de 2023</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PROS: OTIMOS BENEFICIOS, BOM AMBIENTE DE TRABALHO</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PLANO DE CARGO E SALARIO NAO E BEM DEFINIDO</t>
+          <t>PROS: LIBERDADE E FLEXIBILIDADE NO AMBIENTE DE TRABALHO</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-0.00190665 -0.0070625  -0.06699777 ...  0.00215282  0.00434761
- -0.0191243 ]</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>2</v>
+          <t>SALARIO ABAIXO DO MERCADO E POUCA VALORIZACAO E MERITOCRACIA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[-0.06007658 -0.00558628 -0.0158851  ...  0.00946126 -0.0078471
+ -0.00721412]</t>
+        </is>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>9.857948303222656</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>-21.86037445068359</v>
+        <v>-5.396042346954346</v>
+      </c>
+      <c r="K78" t="n">
+        <v>17.61285209655762</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO S NIOR</t>
+          <t>ENGENHEIRO DE SOFTWARE SENIOR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE DE TRABALHO E BENEFICIOS | CONTRAS: NAO POSSUI PLANO DE CARREIRA CLARO</t>
+          <t>PROS: BENEFICIOS (VR, VA, PLANO DE SAUDE E SALARIO) AMBIENTE COLABORATIVO BONS PROFISSIONAIS POSSIBILIDADE DE EVOLUCAO DE CARGO | CONTRAS: PLR HORRIVEL, POLITICAGEM, DESORGANIZACAO INTERNA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>27 de abr. de 2021</t>
+          <t>28 de ago. de 2023</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PROS: OTIMO AMBIENTE DE TRABALHO E BENEFICIOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NAO POSSUI PLANO DE CARREIRA CLARO</t>
+          <t>PROS: BENEFICIOS (VR, VA, PLANO DE SAUDE E SALARIO) AMBIENTE COLABORATIVO BONS PROFISSIONAIS POSSIBILIDADE DE EVOLUCAO DE CARGO</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-0.02397651 -0.02187978 -0.02514823 ... -0.01134844  0.01303839
- -0.02256561]</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>2</v>
+          <t>PLR HORRIVEL, POLITICAGEM, DESORGANIZACAO INTERNA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>[-0.01507271  0.02327048  0.00618475 ...  0.0186539  -0.02357605
+  0.0046549 ]</t>
+        </is>
       </c>
       <c r="H79" t="n">
         <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>9.705019950866699</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>-18.22795104980469</v>
+        <v>13.24542140960693</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11.53302478790283</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS JUNIOR</t>
+          <t>COORDENADOR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROS: GRANDE AUTONOMIA E AMBIENTE LEGAL DE TRABALHAR | CONTRAS: NAO TEM PLANO DE CARREIRA.</t>
+          <t>PROS: APRENDIZADO, CRESCIMENTO, REMUNERACAO, COLABORACAO E AGILIDADE. | CONTRAS: PROCESSOS UM POUCO COMPROMETIDOS POR CONTA DA VELOCIDADE DE NOVOS PROJETOS.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2 de jun. de 2021</t>
+          <t>23 de ago. de 2023</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PROS: GRANDE AUTONOMIA E AMBIENTE LEGAL DE TRABALHAR</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NAO TEM PLANO DE CARREIRA.</t>
+          <t>PROS: APRENDIZADO, CRESCIMENTO, REMUNERACAO, COLABORACAO E AGILIDADE.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-0.03345493  0.01304137 -0.0325665  ... -0.01123709  0.00442944
- -0.00855258]</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>2</v>
+          <t>PROCESSOS UM POUCO COMPROMETIDOS POR CONTA DA VELOCIDADE DE NOVOS PROJETOS.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[-0.02142183 -0.00167057 -0.04366861 ... -0.00870543 -0.05190552
+ -0.02045364]</t>
+        </is>
       </c>
       <c r="H80" t="n">
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>6.831867218017578</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>-16.70699310302734</v>
+        <v>-26.84292030334473</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.09811034053564072</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ANALISTA</t>
+          <t>ADVOGADO JUNIOR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROS: O E VR MUITO BOM | CONTRAS: PLANO DE CARREIRA NAO E ESTRUTURADO</t>
+          <t>PROS: LUGAR DE MUITO APRENDIZADO DADAS AS MATERIAS DIVERSAS. | CONTRAS: EMPRESA FAMILIAR, COM POUCA POSSIBILIDADE DE CRESCIMENTO.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>28 de jun. de 2021</t>
+          <t>24 de jul. de 2023</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PROS: O E VR MUITO BOM</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PLANO DE CARREIRA NAO E ESTRUTURADO</t>
+          <t>PROS: LUGAR DE MUITO APRENDIZADO DADAS AS MATERIAS DIVERSAS.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-0.0011444  -0.02131715 -0.00679241 ...  0.00881128  0.02071021
-  0.01155528]</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>2</v>
+          <t>EMPRESA FAMILIAR, COM POUCA POSSIBILIDADE DE CRESCIMENTO.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[-0.06322379  0.04813643 -0.04378394 ...  0.03711403 -0.04378984
+  0.00633647]</t>
+        </is>
       </c>
       <c r="H81" t="n">
         <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>9.384014129638672</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>-20.79773712158203</v>
+        <v>-14.65235233306885</v>
+      </c>
+      <c r="K81" t="n">
+        <v>12.50021457672119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CONSULTOR COMERCIAL</t>
+          <t>ANALISTA DE OPERACAO SENIOR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROS: PAGAMENTOS EM DIA 
-BONS BENEFICIOS | CONTRAS: AUSENCIA DE PLANO DE CARREIRA</t>
+          <t>PROS: OTIMOS BENEFICIOS. MUITO DESENVOLVIMENTO DE TRABALHO. | CONTRAS: CLIMA MUITO RUIM DEPOIS DA REESTRUTURACAO FRAGILIDADE DE PROCESSOS FALTA DE CLAREZA NAS MUDANCAS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>24 de out. de 2021</t>
+          <t>16 de jun. de 2023</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PROS: PAGAMENTOS EM DIA 
-BONS BENEFICIOS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AUSENCIA DE PLANO DE CARREIRA</t>
+          <t>PROS: OTIMOS BENEFICIOS. MUITO DESENVOLVIMENTO DE TRABALHO.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-0.04773854  0.00236757 -0.03218896 ...  0.00807962 -0.01138915
-  0.01500305]</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>2</v>
+          <t>CLIMA MUITO RUIM DEPOIS DA REESTRUTURACAO FRAGILIDADE DE PROCESSOS FALTA DE CLAREZA NAS MUDANCAS</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[-5.2417140e-02  2.2479208e-02 -4.3806586e-02 ... -2.7645839e-02
+ -7.9919346e-06 -1.6241398e-02]</t>
+        </is>
       </c>
       <c r="H82" t="n">
         <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>6.240147113800049</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>-19.67205047607422</v>
+        <v>-24.46654319763184</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.19889760017395</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE SPECIALIST</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO, MEIO HORARIO, LEGAL | CONTRAS: SEM PLANO DE CARREIRA, LIDERES</t>
+          <t>PROS: TEMOS UM TIME MUITO UNIDO, O QUE FACILITA A RESOLUCAO DE MUITOS PROBLEMAS DURANTE O EXPEDIENTE. | CONTRAS: DIFICULDADE DE COMUNICACAO COM OUTRAS AREAS.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7 de abr. de 2021</t>
+          <t>14 de jun. de 2023</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PROS: BOM SALARIO, MEIO HORARIO, LEGAL</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SEM PLANO DE CARREIRA, LIDERES</t>
+          <t>PROS: TEMOS UM TIME MUITO UNIDO, O QUE FACILITA A RESOLUCAO DE MUITOS PROBLEMAS DURANTE O EXPEDIENTE.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-0.04434865 -0.00505208 -0.04175373 ...  0.0064055   0.01902488
- -0.00982517]</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>2</v>
+          <t>DIFICULDADE DE COMUNICACAO COM OUTRAS AREAS.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[-0.00900102  0.0236924  -0.02167324 ...  0.00566387  0.02433151
+ -0.00555941]</t>
+        </is>
       </c>
       <c r="H83" t="n">
         <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>5.939949035644531</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>-18.05516815185547</v>
+        <v>-21.79117965698242</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.854360342025757</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+          <t>SUPERVISOR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROS: BANCO EM CONSTANTE CRESCIMENTO, PODE OCORRER OPORTUNIDADES FUTURAS. HOUVE AUMENTO SIGNIFICATIVO DO QUADRO DE FUNCIONARIOS NOS ULTIMOS ANOS.. | CONTRAS: ACREDITO QUE PRECISA SER IMPLEMENTADO UM PLANO DE CARREIRA MAIS ROBUSTO E MAIS OPORTUNIDADES INTERNAS, ANTES DE CONTRATAR FUNCIONARIOS EXTERNOS.</t>
+          <t>PROS: AMBIENTE BOM, PAGAMENTO EM DIA E COM VALORES LEGAIS | CONTRAS: DIFICULDADE DE CRESCIMENTO, RH DESORGANIZADO, LIDERANCA RISPIDA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>18 de jun. de 2019</t>
+          <t>28 de jun. de 2023</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PROS: BANCO EM CONSTANTE CRESCIMENTO, PODE OCORRER OPORTUNIDADES FUTURAS. HOUVE AUMENTO SIGNIFICATIVO DO QUADRO DE FUNCIONARIOS NOS ULTIMOS ANOS..</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACREDITO QUE PRECISA SER IMPLEMENTADO UM PLANO DE CARREIRA MAIS ROBUSTO E MAIS OPORTUNIDADES INTERNAS, ANTES DE CONTRATAR FUNCIONARIOS EXTERNOS.</t>
+          <t>PROS: AMBIENTE BOM, PAGAMENTO EM DIA E COM VALORES LEGAIS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-0.04166884  0.03610214 -0.06290506 ... -0.00272007  0.00963467
- -0.00984939]</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
+          <t>DIFICULDADE DE CRESCIMENTO, RH DESORGANIZADO, LIDERANCA RISPIDA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[-0.0091314   0.03067642 -0.04150658 ...  0.03967549  0.01196102
+  0.03988216]</t>
+        </is>
       </c>
       <c r="H84" t="n">
         <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>1.519882082939148</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>-21.45334625244141</v>
+        <v>-17.14505577087402</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-5.708834171295166</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>COORDENADOR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PROS: BONS BENEFICIOS, BOM AMBIENTE DE TRABALHO, SALARIO BOM. | CONTRAS: COMUNICACAO INTERNA RUIM, EMPRESA MUITO VERTICALIZADA E DISSEMINACAO DE INFORMACOES INSTITUCIONAIS NAO SAO FEITAS COM CLAREZA PARA TODOS OS NIVEIS.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>11 de mai. de 2023</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>PROS: BONS BENEFICIOS, BOM AMBIENTE DE TRABALHO, SALARIO BOM.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>COMUNICACAO INTERNA RUIM, EMPRESA MUITO VERTICALIZADA E DISSEMINACAO DE INFORMACOES INSTITUCIONAIS NAO SAO FEITAS COM CLAREZA PARA TODOS OS NIVEIS.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[-0.04329533  0.01191134 -0.00322429 ... -0.02239261  0.02830641
+ -0.00617883]</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-23.83174133300781</v>
+      </c>
+      <c r="K85" t="n">
+        <v>5.23445987701416</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ASSISTENTE DE ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PROS: EMPRESA POSSUI UMA BOA ESTRUTURA FISICA, POREM | CONTRAS: DESRESPEITO AOS FUNCIONARIOS, ASSEDIO MORAL E FALTA DE OPORTUNIDADES PARA CRESCIMENTO.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>23 de mai. de 2023</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>PROS: EMPRESA POSSUI UMA BOA ESTRUTURA FISICA, POREM</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>DESRESPEITO AOS FUNCIONARIOS, ASSEDIO MORAL E FALTA DE OPORTUNIDADES PARA CRESCIMENTO.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[-0.04762086  0.01747762 -0.02881758 ...  0.00681479 -0.03878309
+ -0.02375274]</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-11.38118553161621</v>
+      </c>
+      <c r="K86" t="n">
+        <v>6.994445323944092</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SOFTWARE DEVELOPER</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS COMO VA E VR | CONTRAS: FALTA DE CLAREZA NAS MUDANCAS DA EMPRESA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>29 de mai. de 2023</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS COMO VA E VR</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>FALTA DE CLAREZA NAS MUDANCAS DA EMPRESA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[-0.03296226 -0.00123565 -0.06242548 ... -0.02496713 -0.02941075
+ -0.00328219]</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-17.39673614501953</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3.122846126556396</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FUNCIONARIO(A) SIGILOSO(A)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PROS: LOTS OF CHALLENGES, GOOD COWORKERS AND MARKET MARCHING SALARY. | CONTRAS: THE COMMUNICATION IS VERY POOR, AND SOME DECISIONS ARE QUESTIONABLE.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>27 de abr. de 2023</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>PROS: LOTS OF CHALLENGES, GOOD COWORKERS AND MARKET MARCHING SALARY.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>THE COMMUNICATION IS VERY POOR, AND SOME DECISIONS ARE QUESTIONABLE.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[-0.01728527 -0.00282791 -0.03160851 ... -0.03714213  0.02000913
+  0.00032073]</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-19.70427322387695</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.692180395126343</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SENIOR SOFTWARE ENGINEER</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PROS: SALARIO COMPATIVEL COM MERCADO, VR E VA SAO MUITO BONS. | CONTRAS: O FUNCIONARIO REMOTO TEM POUCAS INFORMACOES.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5 de mai. de 2023</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>PROS: SALARIO COMPATIVEL COM MERCADO, VR E VA SAO MUITO BONS.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>O FUNCIONARIO REMOTO TEM POUCAS INFORMACOES.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>[-0.04215065 -0.0002536  -0.03211524 ... -0.03314667 -0.02789489
+ -0.01949593]</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-11.87970352172852</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.8785663247108459</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>EXECUTIVO DE CONTAS SENIOR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PROS: OS BENEFICIOS SAO OTIMOS, PLANO DE SAUDE, VT, VR | CONTRAS: ROTATIVIDADE ALTA. EMPRESA NAO VALORIZA O FUNCIONARIO. SOMOS APENAS UM NUMERO</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>29 de mar. de 2023</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>PROS: OS BENEFICIOS SAO OTIMOS, PLANO DE SAUDE, VT, VR</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ROTATIVIDADE ALTA. EMPRESA NAO VALORIZA O FUNCIONARIO. SOMOS APENAS UM NUMERO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[-0.06411744  0.01135261 -0.03949294 ... -0.0198826   0.00108301
+  0.05127456]</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-10.40349864959717</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.30675995349884</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SENIOR TECH MANAGER</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PROS: AMBIENTE HORIZONTAL, FLEXIBILIDADE, LIBERDADE PARA CRIAR E SUGERIR, ABERTURA DE TODO O TIME DE GESTAO PARA OUVIR CRITICAS E SUGESTOES. | CONTRAS: AMBIENTE CONFUSO, MUDANCAS DE RUMO FREQUENTES E ALGUMAS DIFERENCAS NO TRATAMENTO DE TIMES DISTINTOS. POUCA DIVERSIDADE, PRINCIPALMENTE NO AMBITO DE GESTAO.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>22 de fev. de 2023</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>PROS: AMBIENTE HORIZONTAL, FLEXIBILIDADE, LIBERDADE PARA CRIAR E SUGERIR, ABERTURA DE TODO O TIME DE GESTAO PARA OUVIR CRITICAS E SUGESTOES.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>AMBIENTE CONFUSO, MUDANCAS DE RUMO FREQUENTES E ALGUMAS DIFERENCAS NO TRATAMENTO DE TIMES DISTINTOS. POUCA DIVERSIDADE, PRINCIPALMENTE NO AMBITO DE GESTAO.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[-0.04452753  0.03142583 -0.04676964 ... -0.02327945  0.00225477
+ -0.04728361]</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-19.80212783813477</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.011162996292114</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>IT SPECIALIST</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PROS: BONS COLABORADORES; AMBIENTE AGRADAVEL E LEVE; GESTORES QUALIFICADOS. | CONTRAS: FALTA DE TRANSPARENCIA DA ALTA GESTAO; REMUNERACAO ABAIXO DO MERCADO; NAO HA MERITOCRACIA.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>19 de abr. de 2023</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>PROS: BONS COLABORADORES; AMBIENTE AGRADAVEL E LEVE; GESTORES QUALIFICADOS.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>FALTA DE TRANSPARENCIA DA ALTA GESTAO; REMUNERACAO ABAIXO DO MERCADO; NAO HA MERITOCRACIA.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[-0.04637749 -0.00649584 -0.01716643 ... -0.00929681 -0.01470832
+ -0.00517262]</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-15.50435543060303</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.9841188192367554</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>GERENTE DE RISCOS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS COMPATIVEIS COM A CONVENCAO DOS TRABALHADORES BANCARIOS. | CONTRAS: CRESCIMENTO MUITO RAPIDO FEZ COM QUE A CULTURA SE PERDESSE UM POUCO NO CAMINHO.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>10 de abr. de 2023</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS COMPATIVEIS COM A CONVENCAO DOS TRABALHADORES BANCARIOS.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>CRESCIMENTO MUITO RAPIDO FEZ COM QUE A CULTURA SE PERDESSE UM POUCO NO CAMINHO.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[-0.02140618  0.02839532 -0.0724095  ... -0.01384748 -0.05432962
+  0.04072475]</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-16.77766227722168</v>
+      </c>
+      <c r="K93" t="n">
+        <v>9.410159111022949</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>CONSULTOR COMERCIAL</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>PROS: OTIMOS BENEFICIOS E SALARIO COMPATIVEL COM O MERCADO. | CONTRAS: NAO POSSUI PLANO DE CARREIRA PARA QUEM MORA NO NORDESTE, TUDO E CENTRALIZADO NA MATRIZ.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>7 de abr. de 2022</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>PROS: OTIMOS BENEFICIOS E SALARIO COMPATIVEL COM O MERCADO.</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>NAO POSSUI PLANO DE CARREIRA PARA QUEM MORA NO NORDESTE, TUDO E CENTRALIZADO NA MATRIZ.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>[ 0.00284316 -0.00813424 -0.03224739 ...  0.00591952  0.00234349
-  0.0204954 ]</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9.329948425292969</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-16.46953582763672</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIO E PARTICIPACAO DOS LUCROS OBRIGATORIA PELO SINDICATO | CONTRAS: MA GESTAO E FALTA DE OPORTUNIDADE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3 de mai. de 2023</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIO E PARTICIPACAO DOS LUCROS OBRIGATORIA PELO SINDICATO</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>MA GESTAO E FALTA DE OPORTUNIDADE</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[ 0.00732846 -0.00245577 -0.06014813 ... -0.01869657 -0.03321303
+ -0.03253451]</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-13.93536281585693</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-2.223691701889038</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ANALISTA JUNIOR</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PROS: SENSACIONAL O CRESCIMENTO E POSSIBILIDADE DE ASSUMIR RESPONSABILIDADES | CONTRAS: DESORGANIZADA EM PROCESSOS POR CONTA DO CRESCIMENTO.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>19 de abr. de 2023</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PROS: SENSACIONAL O CRESCIMENTO E POSSIBILIDADE DE ASSUMIR RESPONSABILIDADES</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>DESORGANIZADA EM PROCESSOS POR CONTA DO CRESCIMENTO.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[-0.00997097  0.00302666 -0.06409433 ...  0.00872269 -0.03199207
+  0.02314838]</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-18.3231258392334</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-6.849234104156494</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ANALISTA DE AUTOMACAO PLENO</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PROS: BONS BENEFICIOS, PESSOAS LEGAIS, AMBIENTE AGRADAVEL. | CONTRAS: MUITAS COISAS APENAS PARA INGLES VER, A ALTA GESTAO NAO SE PREOCUPA COM O BEM ESTAR DOS FUNCIONARIOS E NAO TEM OPCAO DE TRABALHO HIBRIDO.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>22 de fev. de 2023</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PROS: BONS BENEFICIOS, PESSOAS LEGAIS, AMBIENTE AGRADAVEL.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>MUITAS COISAS APENAS PARA INGLES VER, A ALTA GESTAO NAO SE PREOCUPA COM O BEM ESTAR DOS FUNCIONARIOS E NAO TEM OPCAO DE TRABALHO HIBRIDO.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>[-0.02319405 -0.00924064 -0.0192319  ...  0.01165829 -0.02310118
+ -0.01185632]</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-12.23801422119141</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-3.427537679672241</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ANALISTA PRODUTOS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PROS: BOM LUGAR PARA SE TRABALHAR. TECNOLOGIAS BOAS E AMBIENTE LEGAL | CONTRAS: FALTA DE TRANSPARENCIA SOBRE DECISOES IMPORTANTES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5 de abr. de 2023</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>PROS: BOM LUGAR PARA SE TRABALHAR. TECNOLOGIAS BOAS E AMBIENTE LEGAL</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>FALTA DE TRANSPARENCIA SOBRE DECISOES IMPORTANTES</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>[-0.00597855 -0.00290543 -0.03865402 ... -0.02812498 -0.00140748
+ -0.00130488]</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-18.37582206726074</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4.570657730102539</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ANALISTA DE GESTAO</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS ALIMENTACAO E PLANO DE SAUDE. INFRAESTRUTURA MUITO BOA. | CONTRAS: DESORGANIZACAO DA ALTA GESTAO, DEFINICAO DE PRIORIDADES</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5 de mar. de 2023</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS ALIMENTACAO E PLANO DE SAUDE. INFRAESTRUTURA MUITO BOA.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>DESORGANIZACAO DA ALTA GESTAO, DEFINICAO DE PRIORIDADES</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>[ 0.01564158 -0.03303614 -0.03414575 ...  0.01150897  0.00115292
+ -0.02601042]</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-17.15213394165039</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-8.152644157409668</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CONSULTOR DE CREDITO IMOBILIARIO</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PROS: AUTONOMIA PRA TRABALHAR BENEFICIOS BANCARIOS COMISSAO NAO BATER PONTO | CONTRAS: SISTEMA RUIM, EMPRESA DESORGANIZADA, DEMORA NA COMUNICACAO INTERNA, TAXAS MUITAS ALTAS PARA A COBRANCA QUE FAZEM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8 de fev. de 2023</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>PROS: AUTONOMIA PRA TRABALHAR BENEFICIOS BANCARIOS COMISSAO NAO BATER PONTO</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>SISTEMA RUIM, EMPRESA DESORGANIZADA, DEMORA NA COMUNICACAO INTERNA, TAXAS MUITAS ALTAS PARA A COBRANCA QUE FAZEM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>[-0.03563282  0.01780591 -0.02235951 ... -0.01011485 -0.04253394
+ -0.02113707]</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-23.95053100585938</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5.116161346435547</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ASSISTENTE ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PROS: OTIMAS CONDICOES DE TRABALHO, BONS BENEFICIOS, OTIMAS OPORTUNIDADES DE CRESCIMENTO, HORARIO FLEXIVEL. | CONTRAS: POLITICAS INTERNAS PRECISAM SER REVISTAS.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>17 de mar. de 2023</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PROS: OTIMAS CONDICOES DE TRABALHO, BONS BENEFICIOS, OTIMAS OPORTUNIDADES DE CRESCIMENTO, HORARIO FLEXIVEL.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>POLITICAS INTERNAS PRECISAM SER REVISTAS.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[-0.0167661   0.02563598 -0.04534339 ... -0.01937648 -0.00333945
+  0.03690718]</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-20.64572906494141</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5.425205230712891</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ANALISTA SENIOR</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS BONS, AMBIENTE EXCELENTE, BAIXA BUROCRACIA EM TODOS OS PROCESSOS, FERRAMENTAS TOP DE MERCADO. | CONTRAS: FALTA DE RECONHECIMENTO/PROMOCOES, CARGOS INDICADOS (QI)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>6 de fev. de 2023</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIOS BONS, AMBIENTE EXCELENTE, BAIXA BUROCRACIA EM TODOS OS PROCESSOS, FERRAMENTAS TOP DE MERCADO.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>FALTA DE RECONHECIMENTO/PROMOCOES, CARGOS INDICADOS (QI)</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>[-0.04714655 -0.00725066 -0.01899972 ... -0.00644561  0.05602793
+ -0.0127981 ]</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-7.782526016235352</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-1.581137418746948</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TECH ANALYST</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIO DE NAO COBRAR O VR E VA | CONTRAS: TECNOLOGIAS ULTIMAMENTE PARADAS E SEM EVOLUCAO</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>8 de mar. de 2023</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PROS: BENEFICIO DE NAO COBRAR O VR E VA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>TECNOLOGIAS ULTIMAMENTE PARADAS E SEM EVOLUCAO</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[-0.02242658  0.01041127 -0.02236572 ... -0.03230318 -0.01850707
+  0.03166964]</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-17.35022354125977</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.2852896153926849</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>COORDENADOR</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PROS: EMPRESA LEVE, TURMA GENTE BOA. | CONTRAS: MUITA POLITICAGEM, POUCO FOCO EM RESULTADO.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>22 de fev. de 2023</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PROS: EMPRESA LEVE, TURMA GENTE BOA.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MUITA POLITICAGEM, POUCO FOCO EM RESULTADO.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[-0.02183617 -0.00153383 -0.05064905 ... -0.01356772 -0.02426875
+ -0.00295101]</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-23.48581504821777</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-6.128952980041504</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>COORDENADOR</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PROS: ABERTURA HORIZONTAL, BONS BENEFICIOS E CLIMA AGRADAVEL | CONTRAS: EMPRESA DESORGANIZADA, ONDE REINA O PATERNALISMO.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>30 de dez. de 2022</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>PROS: ABERTURA HORIZONTAL, BONS BENEFICIOS E CLIMA AGRADAVEL</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>EMPRESA DESORGANIZADA, ONDE REINA O PATERNALISMO.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[-0.03654803  0.0079187  -0.05912412 ...  0.01714166 -0.01024712
+  0.03810024]</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-10.72577953338623</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11.9831428527832</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ANALISTA</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>PROS: O PREDIO E BONITO E A LOCALIZACAO E BOA | CONTRAS: PAGA MAL, POUCA FLEXIBILIZACAO, VALORIZAM POUCO QUEM JA ESTA LA DENTRO</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4 de dez. de 2022</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>PROS: O PREDIO E BONITO E A LOCALIZACAO E BOA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>PAGA MAL, POUCA FLEXIBILIZACAO, VALORIZAM POUCO QUEM JA ESTA LA DENTRO</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[-0.03748954  0.00616589 -0.0615871  ... -0.0037818  -0.03729537
+  0.00704412]</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-10.58295822143555</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.539295673370361</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SUPERVISOR COMERCIAL</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PROS: AMBIENTE DESAFIADOR, FEEDBACK ABERTO E POSSIBILIDADE DE CRESCIMENTO | CONTRAS: RITMO ACELERADO, BAIXO NIVEL DE PLANEJAMENTO, FALHA DE COMUNICACAO,</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>19 de dez. de 2022</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>PROS: AMBIENTE DESAFIADOR, FEEDBACK ABERTO E POSSIBILIDADE DE CRESCIMENTO</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>RITMO ACELERADO, BAIXO NIVEL DE PLANEJAMENTO, FALHA DE COMUNICACAO,</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[ 0.00282443  0.00572367 -0.04514952 ... -0.00456984 -0.01218657
+ -0.01310536]</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-20.06178092956543</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-3.609294652938843</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ESPECIALISTA DE PROJETOS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PROS: CULTURA JOVIAL, AGIL, TECNOLOGICA, INOVADORA E DE CRESCIMENTO ACELERADO. | CONTRAS: FALTA PROCESSOS ESTRUTURADOS ENTRE AS AREAS E GESTAO DE PESSOAS COMPETENTE.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4 de nov. de 2022</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>PROS: CULTURA JOVIAL, AGIL, TECNOLOGICA, INOVADORA E DE CRESCIMENTO ACELERADO.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>FALTA PROCESSOS ESTRUTURADOS ENTRE AS AREAS E GESTAO DE PESSOAS COMPETENTE.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[-0.02784309  0.01125992 -0.05487036 ... -0.00406496  0.00176245
+ -0.00041133]</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-18.35160827636719</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-1.872565031051636</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ESPECIALISTA</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PROS: EMPRESA BASTANTE FLEXIVEL E COM BONS BENEFICIOS | CONTRAS: FALTA DE CLAREZA QUANTO AOS OBJETIVOS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>30 de nov. de 2022</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>PROS: EMPRESA BASTANTE FLEXIVEL E COM BONS BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>FALTA DE CLAREZA QUANTO AOS OBJETIVOS</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[-0.00615996 -0.038164   -0.07580403 ... -0.03917665  0.03282038
+ -0.02802034]</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-17.95451545715332</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3.125185489654541</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ANALISTA DE DADOS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PROS: FLEXIBILIDADE, LIDER EM TECNOLOGIA, CULTURA | CONTRAS: BUROCRACIA, PROCESSOS EM DEFINICAO, INTEGRACAO EM AREAS</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>10 de nov. de 2022</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>PROS: FLEXIBILIDADE, LIDER EM TECNOLOGIA, CULTURA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>BUROCRACIA, PROCESSOS EM DEFINICAO, INTEGRACAO EM AREAS</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[-0.01435705 -0.00137474 -0.0081684  ...  0.0023853   0.00269568
+  0.00351162]</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-23.84973907470703</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-2.370368957519531</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DEV III</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PROS: FLEXIBILIDADE NO TRABALHO E COMPREENSAO | CONTRAS: MONOPOLIO DE CARGOS E FALTA DE BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>3 de nov. de 2022</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>PROS: FLEXIBILIDADE NO TRABALHO E COMPREENSAO</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>MONOPOLIO DE CARGOS E FALTA DE BENEFICIOS</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[-0.01300089 -0.01679732 -0.027785   ... -0.00583487 -0.05641747
+ -0.00965805]</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-13.5984525680542</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-1.458449959754944</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SOCIAL MEDIA ANALYST</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PROS: EQUIPE ROBUSTA COM LIDERES EXPERIENTES, EXCELENTES BENEFICIOS, ESCRITORIO BEM LOCALIZADO | CONTRAS: PROCESSOS BUROCRATICOS OU DESORGANIZADOS, RH DEIXA A DESEJAR</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>17 de out. de 2022</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>PROS: EQUIPE ROBUSTA COM LIDERES EXPERIENTES, EXCELENTES BENEFICIOS, ESCRITORIO BEM LOCALIZADO</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>PROCESSOS BUROCRATICOS OU DESORGANIZADOS, RH DEIXA A DESEJAR</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>[-0.02932308  0.00026225  0.00124445 ... -0.01264397 -0.01674988
+  0.04169479]</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-23.33148765563965</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.125527024269104</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DESENVOLVEDOR FRONTEND JUNIOR</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PROS: LIDERANCAS EMPATICAS, AMBIENTE SAUDAVEL PARA SE TRABALHAR | CONTRAS: FALTA MAIS DIVERSIDADE NA EMPRESA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>11 de out. de 2022</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>PROS: LIDERANCAS EMPATICAS, AMBIENTE SAUDAVEL PARA SE TRABALHAR</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>FALTA MAIS DIVERSIDADE NA EMPRESA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[-0.05263501 -0.01122084 -0.05749073 ...  0.01550697 -0.04646446
+  0.02776825]</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-16.46706962585449</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.942192912101746</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>COORDENADOR</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>PROS: BOA REMUNERACAO E BENEFICIOS. LOCALIZACAO E ESTRUTURA FISICA DE TRABALHO. EMPRESA DIGITAL E TECNOLOGICA. MUITAS OPORTUNIDADES INTERNAS. ESTA BUSCANDO MELHORAR CONTINUAMENTE O AMBIENTE DE TRABALHO E ENGAJAR OS FUNCIONARIOS NA CONSTRUCAO DOS PRODUTOS E DA MARCA. | CONTRAS: AINDA POSSUI UMA ESTRUTURA POUCO AGIL. POUCA DIVERSIDADE. MUITO AUDITADA E REGULADA.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>26 de set. de 2019</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>PROS: BOA REMUNERACAO E BENEFICIOS. LOCALIZACAO E ESTRUTURA FISICA DE TRABALHO. EMPRESA DIGITAL E TECNOLOGICA. MUITAS OPORTUNIDADES INTERNAS. ESTA BUSCANDO MELHORAR CONTINUAMENTE O AMBIENTE DE TRABALHO E ENGAJAR OS FUNCIONARIOS NA CONSTRUCAO DOS PRODUTOS E DA MARCA.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>AINDA POSSUI UMA ESTRUTURA POUCO AGIL. POUCA DIVERSIDADE. MUITO AUDITADA E REGULADA.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[-0.07421963  0.02656987 -0.04565801 ...  0.01840909 -0.02471331
+ -0.000142  ]</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-18.28388404846191</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.1820438206195831</v>
       </c>
     </row>
   </sheetData>
